--- a/TestCase_Nhom10.xlsx
+++ b/TestCase_Nhom10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive - TRƯỜNG ĐẠI HỌC MỞ TP.HCM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66543FCE-34EC-45C8-83C6-7BE756CDE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E5D2C-D2D2-4D22-ACA5-E52AEB9C049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -31,11 +31,22 @@
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>TC1</t>
   </si>
@@ -203,6 +214,9 @@
     <t>Test Leader 01</t>
   </si>
   <si>
+    <t>Sample Project</t>
+  </si>
+  <si>
     <t>CR100 - Export to excel</t>
   </si>
   <si>
@@ -218,365 +232,335 @@
     <t>DeviceManagementSystem</t>
   </si>
   <si>
-    <t>DMS1.0</t>
-  </si>
-  <si>
-    <t>Lê Hữu Hậu</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng đăng nhập (Admin) với tài khoản và mật khẩu hợp lệ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hiển thị danh sách </t>
+    <t>###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra đăng nhập thành công bằng tài khoản và mật khẩu hợp lệ </t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra chức năng đăng nhập HỢP LỆ</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra chức năng đăng nhập KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>1. Vào trang đăng nhập 
+2. Nhấn login</t>
+  </si>
+  <si>
+    <t>Nội dung thông báo chưa rõ ràng!!!</t>
+  </si>
+  <si>
+    <t>Hiện ra trang Danh sách thiết bị</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" tồn tại trong hệ thống : </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>thiết bị</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng đăng nhập </t>
+      <t>lehuuhau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Nhập "password" có 8 ký tự hợp lệ: </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>thành công</t>
+      <t>Lehuuhau1231@</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> với tài khoản và mật khẩu </t>
+      <t xml:space="preserve">
+4. Nhấn login
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra đăng nhập không thành công </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>hợp lệ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Đăng nhập </t>
+      <t>bằng tài khoản không tồn tại trong hệ thống</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" không tồn tại trong hệ thống : </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>thất bại</t>
+      <t>abc123</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>. Hiển thị thông báo "Sai tài khoản hoặc mật khẩu"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Đăng nhập</t>
+      <t xml:space="preserve">
+3. Nhập "password" có 8 ký tự hợp lệ: </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> thất bại</t>
+      <t>Abc1231@</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>. Hiển thị thông báo "Sai tài khoản hoặc mật khẩu"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Truy cập vào </t>
+      <t xml:space="preserve">
+4. Nhấn login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hiện thông báo tài khoản</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2: Nhập </t>
+      <t xml:space="preserve"> Không tồn tại trong hệ thống</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra đăng nhập không thành công </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>đúng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> với tên tài khoản: "admin"
-3: Nhập </t>
+      <t>bằng mật khẩu không hợp lệ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" tồn tại trong hệ thống : </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>đúng</t>
+      <t>lehuuhau</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> với mật khẩu: "admin123"
-4: </t>
+      <t xml:space="preserve">
+3. Nhập "password" không hợp lệ : </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Click</t>
+      <t>Abc1231@</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> vào nút đăng nhập</t>
-    </r>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng đăng nhập (Admin) với tài khoản không hợp lệ</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng đăng nhập (Admin) với mật khẩu không hợp lệ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng đăng nhập </t>
+      <t xml:space="preserve">
+4. Nhấn login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hiện thông báo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Sai mật khẩu hoặc tài khoản</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra đăng nhập không thành công </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>thất bại</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> với tài khoản </t>
+      <t>khi bỏ trống "username" và "password"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hiện thông báo</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>không hợp lệ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng đăng nhập </t>
+      <t xml:space="preserve"> Chưa nhập username</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra đăng nhập không thành công </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>thất bại</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> với mật khẩu </t>
+      <t>bằng mật khẩu bỏ trống</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" tồn tại trong hệ thống : </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>không hợp lệ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Truy cập vào </t>
+      <t>lehuuhau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Không nhập password
+4. Nhấn login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hiện thông báo</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2: Nhập với tên tài khoản: "z"
-3: Nhập với mật khẩu: "admin123"
-4: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> vào nút đăng nhập</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Truy cập vào </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>phần mềm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2: Nhập với tên tài khoản: "admin"
-3: Nhập với mật khẩu: "aaa"
-4: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> vào nút đăng nhập</t>
+      <t xml:space="preserve"> Chưa nhập password</t>
     </r>
   </si>
 </sst>
@@ -588,7 +572,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -722,39 +706,45 @@
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -795,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1167,17 +1157,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1253,6 +1232,43 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1367,6 +1383,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,18 +1478,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1479,11 +1495,110 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1491,156 +1606,57 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Functional Test Case v1.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1656,6 +1672,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56744</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2814734</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1563809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D477F5BD-FA42-B4B7-1FC7-B3A794164287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8081071" y="2303205"/>
+          <a:ext cx="2757990" cy="1523277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2760306</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1586204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Hình ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F315CDC-CA08-F47B-1192-C232BA81F8D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8475306" y="4128795"/>
+          <a:ext cx="2651449" cy="1562878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25831</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2736273</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1498023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Hình ảnh 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02188356-80B1-580E-8AB0-43A5C9AED777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8710899" y="7326977"/>
+          <a:ext cx="2710442" cy="1470660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60615</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2788229</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1489363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Hình ảnh 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35DA3CCE-1A14-A7A9-0DF5-DD0306B7E427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8745683" y="5749636"/>
+          <a:ext cx="2727614" cy="1420091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2770908</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1604496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Hình ảnh 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C45826E-37F3-1A38-8E38-DB54A42D3494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8780318" y="8918864"/>
+          <a:ext cx="2675658" cy="1552541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1961,23 +2202,23 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.2">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -1993,8 +2234,8 @@
       <c r="B3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="57">
-        <v>1.1000000000000001</v>
+      <c r="C3" s="61">
+        <v>1.2</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="25"/>
@@ -2006,15 +2247,15 @@
       <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11">
-        <v>45739</v>
+      <c r="C4" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1">
       <c r="A5" s="25"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
@@ -2028,11 +2269,11 @@
       <c r="B6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
+      <c r="C6" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
@@ -2041,11 +2282,9 @@
       <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
@@ -2072,32 +2311,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="34" customFormat="1" ht="25.5">
-      <c r="B11" s="46" t="s">
+    <row r="11" spans="1:8" s="34" customFormat="1" ht="26.4">
+      <c r="B11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="52" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="34" customFormat="1">
+    <row r="12" spans="1:8" s="34" customFormat="1" ht="26.4">
       <c r="B12" s="36">
-        <v>45739</v>
+        <v>39293</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>41</v>
@@ -2106,31 +2345,57 @@
       <c r="E12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="69" t="s">
-        <v>53</v>
+      <c r="F12" s="73" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="81"/>
-      <c r="H12" s="83"/>
-    </row>
-    <row r="13" spans="1:8" s="34" customFormat="1">
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" s="35" customFormat="1" ht="12.75">
-      <c r="B14" s="100"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" s="35" customFormat="1" ht="12.75">
+      <c r="H12" s="83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="34" customFormat="1" ht="26.4">
+      <c r="B13" s="89">
+        <v>39295</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="35" customFormat="1" ht="26.4">
+      <c r="B14" s="36">
+        <v>39311</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="35" customFormat="1" ht="13.2">
       <c r="B15" s="43"/>
       <c r="C15" s="44"/>
       <c r="D15" s="41"/>
@@ -2194,46 +2459,22 @@
       <c r="H21" s="42"/>
     </row>
     <row r="22" spans="2:8" s="34" customFormat="1">
-      <c r="B22" s="93">
-        <v>39295</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="83" t="s">
-        <v>42</v>
-      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="2:8" s="34" customFormat="1">
-      <c r="B23" s="36">
-        <v>39311</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="83" t="s">
-        <v>42</v>
-      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2254,343 +2495,401 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
-    <col min="7" max="7" width="18.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="9" style="87"/>
-    <col min="10" max="10" width="18" style="86" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="9" style="87"/>
+    <col min="11" max="11" width="18" style="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="I1" s="6"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
-      <c r="A4" s="64" t="s">
+      <c r="B3" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="13.2">
+      <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" s="73" customFormat="1" ht="12.75">
-      <c r="A5" s="64" t="s">
+      <c r="B4" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="77" customFormat="1" ht="26.4">
+      <c r="A5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="76"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="84">
-        <f>COUNTIF(I12:I17,"Pass")</f>
-        <v>3</v>
+        <f>COUNTIF(J12:J18,"Pass")</f>
+        <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I736,"Pending")</f>
+        <f>COUNTIF(J10:J733,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="H6" s="8"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="85">
-        <f>COUNTIF(I12:I17,"Fail")</f>
+        <f>COUNTIF(J12:J18,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="60">
-        <f>COUNTA(A12:A17) -15</f>
-        <v>-9</v>
-      </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
+      <c r="D7" s="64">
+        <f>COUNTA(A12:A18) -15</f>
+        <v>-8</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" s="75" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" s="79" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="121" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="J9" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="K9" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="74"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" s="76" customFormat="1" ht="15">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="113" t="s">
+      <c r="L9" s="78"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="106"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="80" customFormat="1" ht="15">
+      <c r="A11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="13.2">
+      <c r="A12" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="130.80000000000001" customHeight="1" outlineLevel="1">
+      <c r="A13" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
-      <c r="A13" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132">
+        <v>45740</v>
+      </c>
+      <c r="J13" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="134"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A14" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+    </row>
+    <row r="15" spans="1:12" ht="127.8" customHeight="1">
+      <c r="A15" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="138">
+        <v>45741</v>
+      </c>
+      <c r="J15" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="133">
-        <v>45740</v>
-      </c>
-      <c r="I13" s="134" t="s">
+      <c r="K15" s="134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="127.8" customHeight="1">
+      <c r="A16" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="140" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="138">
+        <v>45741</v>
+      </c>
+      <c r="J16" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A14" s="136" t="s">
+      <c r="K16" s="134"/>
+    </row>
+    <row r="17" spans="1:11" ht="123.6" customHeight="1">
+      <c r="A17" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="91"/>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A15" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="138" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="139">
-        <v>45740</v>
-      </c>
-      <c r="I15" s="134" t="s">
+      <c r="D17" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="138">
+        <v>45741</v>
+      </c>
+      <c r="J17" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="77"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="A16" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="91"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A17" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="96" t="s">
+      <c r="K17" s="134"/>
+    </row>
+    <row r="18" spans="1:11" ht="130.80000000000001" customHeight="1">
+      <c r="A18" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="139">
-        <v>45740</v>
-      </c>
-      <c r="I17" s="134" t="s">
+      <c r="B18" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="138">
+        <v>45741</v>
+      </c>
+      <c r="J18" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="77"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1"/>
-    <row r="19" spans="1:10" ht="12" customHeight="1"/>
-    <row r="20" spans="1:10" ht="12" customHeight="1"/>
-    <row r="21" spans="1:10" ht="12" customHeight="1"/>
-    <row r="22" spans="1:10" ht="12" customHeight="1"/>
-    <row r="23" spans="1:10" ht="12" customHeight="1"/>
-    <row r="24" spans="1:10" ht="12" customHeight="1"/>
-    <row r="25" spans="1:10" ht="12" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12" customHeight="1"/>
-    <row r="30" spans="1:10" ht="12" customHeight="1"/>
-    <row r="31" spans="1:10" ht="12" customHeight="1"/>
-    <row r="32" spans="1:10" ht="12" customHeight="1"/>
+      <c r="K18" s="134"/>
+    </row>
+    <row r="19" spans="1:11" ht="12" customHeight="1">
+      <c r="E19" s="121"/>
+    </row>
+    <row r="20" spans="1:11" ht="12" customHeight="1"/>
+    <row r="21" spans="1:11" ht="12" customHeight="1"/>
+    <row r="22" spans="1:11" ht="12" customHeight="1"/>
+    <row r="23" spans="1:11" ht="12" customHeight="1"/>
+    <row r="24" spans="1:11" ht="12" customHeight="1"/>
+    <row r="25" spans="1:11" ht="12" customHeight="1"/>
+    <row r="26" spans="1:11" ht="12" customHeight="1"/>
+    <row r="27" spans="1:11" ht="12" customHeight="1"/>
+    <row r="28" spans="1:11" ht="12" customHeight="1"/>
+    <row r="29" spans="1:11" ht="12" customHeight="1"/>
+    <row r="30" spans="1:11" ht="12" customHeight="1"/>
+    <row r="31" spans="1:11" ht="12" customHeight="1"/>
+    <row r="32" spans="1:11" ht="12" customHeight="1"/>
     <row r="33" ht="12" customHeight="1"/>
     <row r="34" ht="12" customHeight="1"/>
     <row r="35" ht="12" customHeight="1"/>
@@ -2608,43 +2907,40 @@
     <row r="47" ht="12" customHeight="1"/>
     <row r="48" ht="12" customHeight="1"/>
     <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
-    <row r="53" ht="12" customHeight="1"/>
-    <row r="54" ht="12" customHeight="1"/>
-    <row r="55" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
+  <mergeCells count="26">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2653,16 +2949,16 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:7" ht="22.2">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -2682,7 +2978,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
@@ -2692,17 +2988,17 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:7" ht="13.8">
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2711,7 +3007,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2720,86 +3016,86 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
+    <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="61" customFormat="1" ht="14.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66">
+    <row r="8" spans="1:7" s="65" customFormat="1" ht="13.8">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70">
         <v>1</v>
       </c>
-      <c r="C8" s="67" t="str">
+      <c r="C8" s="71" t="str">
         <f>Samples!B4</f>
         <v>CR100 - Export to excel</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="72">
         <f>Samples!B6</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="67">
+        <v>4</v>
+      </c>
+      <c r="E8" s="71">
         <f>Samples!B7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="71">
         <f>Samples!D6</f>
         <v>0</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="72">
         <f>Samples!D7</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="19"/>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="70"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="19"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="59">
         <f>SUM(D6:D9)</f>
-        <v>3</v>
-      </c>
-      <c r="E10" s="55">
+        <v>4</v>
+      </c>
+      <c r="E10" s="59">
         <f>SUM(E6:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="59">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="60">
         <f>SUM(G6:G9)</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -2808,7 +3104,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
@@ -2817,14 +3113,14 @@
       <c r="D12" s="19"/>
       <c r="E12" s="23">
         <f>(D10+E10)*100/G10</f>
-        <v>-33.333333333333336</v>
+        <v>-50</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
@@ -2833,7 +3129,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="23">
         <f>D10*100/G10</f>
-        <v>-33.333333333333336</v>
+        <v>-50</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>23</v>

--- a/TestCase_Nhom10.xlsx
+++ b/TestCase_Nhom10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E5D2C-D2D2-4D22-ACA5-E52AEB9C049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0770AB7F-9C34-4B5F-BA9B-9BE98FC42A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,15 +46,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>TC1</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
   </si>
   <si>
     <t>Fail</t>
@@ -241,15 +235,6 @@
     <t>Actual Results</t>
   </si>
   <si>
-    <t>1. Kiểm tra chức năng đăng nhập HỢP LỆ</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra chức năng đăng nhập KHÔNG HỢP LỆ</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
   </si>
   <si>
     <t>Hiện ra trang Danh sách thiết bị</t>
-  </si>
-  <si>
-    <t>TC5</t>
   </si>
   <si>
     <r>
@@ -561,6 +543,606 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> Chưa nhập password</t>
+    </r>
+  </si>
+  <si>
+    <t>Chức năng ĐĂNG NHẬP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra xem hệ thống </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có bị tấn công SQL Injection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> khi nhập dữ liệu đầu vào tại form đăng nhập</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" bằng chuỗi : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1' or 1=1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Nhập "password" tùy ý : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>abc1234@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhấn login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sai mật khẩu hoặc tài khoản</t>
+    </r>
+  </si>
+  <si>
+    <t>Chức năng THÊM THIẾT BỊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra chức năng đăng nhập HỢP LỆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra chức năng đăng nhập KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nhập tên thiết bị : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Điện thoại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Chọn ngày nhập thiết bị :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chọn trạng thái của thiết bị : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đang hoạt động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhấn "thêm thiết bị"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thêm thiết bị thành công </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Thiết bị vừa thêm hiện ở bảng dưới</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thiết bị có trạng thái "Đang hoạt động"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> thành công và hiện danh sách ở bản</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thiết bị có trạng thái "Hỏng hóc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> thành công và hiện danh sách ở bảng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nhập tên thiết bị : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy tính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Chọn ngày nhập thiết bị : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chọn trạng thái của thiết bị : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hỏng hóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhấn "thêm thiết bị"</t>
+    </r>
+  </si>
+  <si>
+    <t>Kiểm tra thêm KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra thêm thất bại khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bỏ trống 1 ô thông tin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Không nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> tên thiết bị 
+2. Chọn ngày nhập thiết bị : 3/04/2025
+3. Chọn trạng thái của thiết bị : Hỏng hóc
+4. Nhấn "thêm thiết bị"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vui lòng điền đủ thông tin</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>1. Hiện thông báo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Thêm thiết bị thành công </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Thiết bị vừa thêm hiện ở bảng dưới</t>
+    </r>
+  </si>
+  <si>
+    <t>Chức năng CẬP NHẬT THIẾT BỊ</t>
+  </si>
+  <si>
+    <t>Kiểm tra cập nhật HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times  New Roman"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật thông tin hợp lệ </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click 2 lần vào thiết bị muốn cập nhật
+2. Sửa tên thiết bị từ bàn ủi -&gt; bàn ủi hơi nước
+3. Sửa ngày nhập từ 27/2/2025 -&gt; 6/3/2025
+4. Nhấn "cập nhật"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra cập nhật </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngày thanh lý khi chuyển trạng thái thiết bị sang "đã thanh lý"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật thông tin thành công</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times  New Roman"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Cập nhật thông tin thành công</t>
+    </r>
+  </si>
+  <si>
+    <t>Kiểm tra cập nhật KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra cập nhật </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>khi bỏ trống 1 ô thông tin</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click 2 lần vào thiết bị muốn cập nhật
+2. Bỏ trống ô tên thiết bị
+3. Sửa trạng thái Hỏng hóc -&gt; Đã hoạt động
+4. Sửa ngày nhập 1/3/2025 -&gt; 4/3/2025
+5. Nhấn "cập nhật"
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Hiện thông báo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Vui lòng điền đủ thông tin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra cật nhật </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>khi trạng thái là "đã thanh lý" nhưng bỏ trống ngày thanh lý</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click 2 lần vào thiết bị muốn cập nhật
+2. Sửa trạng thái Hỏng hóc -&gt; Đã thanh lý
+3. Chọn ngày thanh lý lớn hơn ngày nhập
+4. Nhấn "cập nhật"</t>
+  </si>
+  <si>
+    <t>1. Click 2 lần vào thiết bị muốn cập nhật
+2. Sửa trạng thái Hỏng Hóc -&gt; Đã thanh lý 
+3. Không chọn ngày thanh lý 
+5. Nhấn "cập nhật"</t>
+  </si>
+  <si>
+    <t>Chưa chọn ngày thanh lý nhưng vẫn cập nhật thiết bị thành công</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vui lòng nhập ngày thanh lý</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra cập nhật </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>khi chọn ngày thanh lý nhỏ hơn ngày nhập</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click 2 lần vào thiết bị muốn cập nhật
+2. Sửa trạng thái Đang sửa -&gt; Đã thanh lý 
+3. Chọn ngày thanh lý nhỏ hơn ngày nhập(12/3/2025) là 11/2/2025 
+5. Nhấn "cập nhật"</t>
+  </si>
+  <si>
+    <r>
+      <t>Hiện thông báo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ngày thanh lý phải lớn hơn ngày nhập</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
 </sst>
@@ -572,7 +1154,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -724,12 +1306,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -746,8 +1322,60 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times  New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times  New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Times  New Roman"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +1412,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1278,7 +1912,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1507,6 +2141,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1531,6 +2189,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1573,9 +2240,24 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,66 +2276,113 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1680,13 +2409,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56744</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>40532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2814734</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1563809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1724,14 +2453,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>23326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2760306</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1586204</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1587844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1768,13 +2497,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>25831</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>27363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2736273</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1498023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1812,13 +2541,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>60615</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2788229</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1489363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1856,14 +2585,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2770908</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1604496</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1601872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1888,6 +2617,408 @@
         <a:xfrm>
           <a:off x="8780318" y="8918864"/>
           <a:ext cx="2675658" cy="1552541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88605</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2817628</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1675543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Hình ảnh 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABECD6E7-D205-AB2F-D6BB-11DFA540339C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8771861" y="4412513"/>
+          <a:ext cx="2729023" cy="1604658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>55344</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2753567</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1679864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Hình ảnh 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2284660B-7549-58C5-8385-AC9E088D93B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8740412" y="13347801"/>
+          <a:ext cx="2698223" cy="1597790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83635</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2722756</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1551878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Hình ảnh 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31642DB3-B64B-8C31-B734-F2BF76DB2501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8781586" y="15082026"/>
+          <a:ext cx="2639121" cy="1514706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115186</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2729023</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1532861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Hình ảnh 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C186A1F6-14EC-7414-EF58-EC68E17688A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8798442" y="16994373"/>
+          <a:ext cx="2613837" cy="1470837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177210</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2675860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1422468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Hình ảnh 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3525833C-F400-BBE0-E52C-DB0C2A2C9549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8860466" y="19005698"/>
+          <a:ext cx="2498650" cy="1378165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186071</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2703627</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1506278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Hình ảnh 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EB83C8-F916-EB71-D97C-FC5D30FA326C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8869327" y="22337233"/>
+          <a:ext cx="2517556" cy="1453115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>124054</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2688475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1350818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Hình ảnh 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1792DFAE-872B-0062-D15F-92BE391A4634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8809122" y="25357175"/>
+          <a:ext cx="2564421" cy="1286848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155862</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2692963</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1428751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Hình ảnh 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFF46AB-E49F-60DE-805C-DADF2FDD0504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8840930" y="26817206"/>
+          <a:ext cx="2537101" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185853</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2657708</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1352502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Hình ảnh 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C628E1DF-6D41-5D6C-7A18-8ABA2031D51E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883804" y="28351976"/>
+          <a:ext cx="2471855" cy="1268867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,7 +3352,7 @@
     <row r="2" spans="1:8" ht="22.2">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -2232,7 +3363,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="25"/>
       <c r="B3" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="61">
         <v>1.2</v>
@@ -2245,10 +3376,10 @@
     <row r="4" spans="1:8">
       <c r="A4" s="25"/>
       <c r="B4" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -2267,24 +3398,24 @@
     <row r="6" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="25"/>
       <c r="B6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
+        <v>33</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="25"/>
       <c r="B7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
@@ -2308,30 +3439,30 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="34" customFormat="1" ht="26.4">
       <c r="B11" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>14</v>
-      </c>
       <c r="H11" s="82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="34" customFormat="1" ht="26.4">
@@ -2339,18 +3470,18 @@
         <v>39293</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="81"/>
       <c r="H12" s="83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="34" customFormat="1" ht="26.4">
@@ -2358,20 +3489,20 @@
         <v>39295</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="26.4">
@@ -2379,20 +3510,20 @@
         <v>39311</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>46</v>
-      </c>
       <c r="H14" s="83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="13.2">
@@ -2495,10 +3626,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -2516,11 +3647,11 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2532,9 +3663,9 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2546,111 +3677,111 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
+        <v>35</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
+        <v>36</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" s="77" customFormat="1" ht="26.4">
       <c r="A5" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
       <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="84">
-        <f>COUNTIF(J12:J18,"Pass")</f>
-        <v>4</v>
+        <f>COUNTIF(J13:J20,"Pass")</f>
+        <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(J10:J733,"Pending")</f>
+        <f>COUNTIF(J10:J737,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="85">
-        <f>COUNTIF(J12:J18,"Fail")</f>
+        <f>COUNTIF(J13:J20,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="64">
-        <f>COUNTA(A12:A18) -15</f>
-        <v>-8</v>
+        <f>COUNTA(A13:A20) -15</f>
+        <v>-12</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -2661,268 +3792,600 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="79" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="115" t="s">
+      <c r="A9" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="114" t="s">
+      <c r="B9" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="78"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="117"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="80" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="122"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A12" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="144"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" customHeight="1" outlineLevel="1">
+      <c r="A13" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="110"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="126" customHeight="1" outlineLevel="1">
+      <c r="A14" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="140">
+        <v>45740</v>
+      </c>
+      <c r="J14" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="97"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.2" customHeight="1">
+      <c r="A15" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="110"/>
+    </row>
+    <row r="16" spans="1:12" ht="136.80000000000001" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="99">
+        <v>45741</v>
+      </c>
+      <c r="J16" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="97"/>
+    </row>
+    <row r="17" spans="1:11" ht="142.80000000000001" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="99">
+        <v>45741</v>
+      </c>
+      <c r="J17" s="155" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="127.8" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="99">
+        <v>45741</v>
+      </c>
+      <c r="J18" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="97"/>
+    </row>
+    <row r="19" spans="1:11" ht="133.19999999999999" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="78"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="80" customFormat="1" ht="15">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="13.2">
-      <c r="A12" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="124"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="130.80000000000001" customHeight="1" outlineLevel="1">
-      <c r="A13" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="126" t="s">
+      <c r="D19" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="99">
+        <v>45741</v>
+      </c>
+      <c r="J19" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="97"/>
+    </row>
+    <row r="20" spans="1:11" ht="133.19999999999999" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="99">
+        <v>45741</v>
+      </c>
+      <c r="J20" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="97"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.2" customHeight="1">
+      <c r="A21" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="144"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.2" customHeight="1">
+      <c r="A22" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
+    </row>
+    <row r="23" spans="1:11" ht="139.80000000000001" customHeight="1">
+      <c r="A23" s="141"/>
+      <c r="B23" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="150"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="152">
+        <v>45746</v>
+      </c>
+      <c r="J23" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="141"/>
+    </row>
+    <row r="24" spans="1:11" ht="130.19999999999999" customHeight="1">
+      <c r="A24" s="146"/>
+      <c r="B24" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="147" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="164"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="152">
+        <v>45746</v>
+      </c>
+      <c r="J24" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="146"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1">
+      <c r="A25" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
+    </row>
+    <row r="26" spans="1:11" ht="124.8" customHeight="1">
+      <c r="A26" s="146"/>
+      <c r="B26" s="163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="163" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="152">
+        <v>45746</v>
+      </c>
+      <c r="J26" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="146"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A27" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="139"/>
+    </row>
+    <row r="28" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A28" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
+    </row>
+    <row r="29" spans="1:11" ht="132" customHeight="1">
+      <c r="A29" s="167" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="168" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="170">
+        <v>45746</v>
+      </c>
+      <c r="J29" s="171" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="167"/>
+    </row>
+    <row r="30" spans="1:11" ht="124.8" customHeight="1">
+      <c r="A30" s="146"/>
+      <c r="B30" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="147" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="152">
+        <v>45746</v>
+      </c>
+      <c r="J30" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="146"/>
+    </row>
+    <row r="31" spans="1:11" ht="116.4" customHeight="1">
+      <c r="A31" s="146"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="146"/>
+    </row>
+    <row r="32" spans="1:11" ht="108.6" customHeight="1">
+      <c r="A32" s="158"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="158"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.6" customHeight="1">
+      <c r="A33" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
+    </row>
+    <row r="34" spans="1:11" s="175" customFormat="1" ht="112.8" customHeight="1">
+      <c r="A34" s="146"/>
+      <c r="B34" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="164"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="152">
+        <v>45746</v>
+      </c>
+      <c r="J34" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="146"/>
+    </row>
+    <row r="35" spans="1:11" ht="121.2" customHeight="1">
+      <c r="A35" s="146"/>
+      <c r="B35" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="164"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="152">
+        <v>45746</v>
+      </c>
+      <c r="J35" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132">
-        <v>45740</v>
-      </c>
-      <c r="J13" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="134"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A14" s="122" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-    </row>
-    <row r="15" spans="1:12" ht="127.8" customHeight="1">
-      <c r="A15" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="135" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="138">
-        <v>45741</v>
-      </c>
-      <c r="J15" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="134" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="127.8" customHeight="1">
-      <c r="A16" s="125" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="138">
-        <v>45741</v>
-      </c>
-      <c r="J16" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="134"/>
-    </row>
-    <row r="17" spans="1:11" ht="123.6" customHeight="1">
-      <c r="A17" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="138">
-        <v>45741</v>
-      </c>
-      <c r="J17" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="134"/>
-    </row>
-    <row r="18" spans="1:11" ht="130.80000000000001" customHeight="1">
-      <c r="A18" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="138">
-        <v>45741</v>
-      </c>
-      <c r="J18" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="134"/>
-    </row>
-    <row r="19" spans="1:11" ht="12" customHeight="1">
-      <c r="E19" s="121"/>
-    </row>
-    <row r="20" spans="1:11" ht="12" customHeight="1"/>
-    <row r="21" spans="1:11" ht="12" customHeight="1"/>
-    <row r="22" spans="1:11" ht="12" customHeight="1"/>
-    <row r="23" spans="1:11" ht="12" customHeight="1"/>
-    <row r="24" spans="1:11" ht="12" customHeight="1"/>
-    <row r="25" spans="1:11" ht="12" customHeight="1"/>
-    <row r="26" spans="1:11" ht="12" customHeight="1"/>
-    <row r="27" spans="1:11" ht="12" customHeight="1"/>
-    <row r="28" spans="1:11" ht="12" customHeight="1"/>
-    <row r="29" spans="1:11" ht="12" customHeight="1"/>
-    <row r="30" spans="1:11" ht="12" customHeight="1"/>
-    <row r="31" spans="1:11" ht="12" customHeight="1"/>
-    <row r="32" spans="1:11" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
+      <c r="K35" s="147" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="116.4" customHeight="1">
+      <c r="A36" s="146"/>
+      <c r="B36" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="149" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="164"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="152">
+        <v>45746</v>
+      </c>
+      <c r="J36" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="146"/>
+    </row>
+    <row r="37" spans="1:11" ht="12" customHeight="1">
+      <c r="J37" s="156"/>
+      <c r="K37" s="157"/>
+    </row>
+    <row r="38" spans="1:11" ht="12" customHeight="1"/>
+    <row r="39" spans="1:11" ht="12" customHeight="1"/>
+    <row r="40" spans="1:11" ht="12" customHeight="1"/>
+    <row r="41" spans="1:11" ht="12" customHeight="1"/>
+    <row r="42" spans="1:11" ht="12" customHeight="1"/>
+    <row r="43" spans="1:11" ht="12" customHeight="1"/>
+    <row r="44" spans="1:11" ht="12" customHeight="1"/>
+    <row r="45" spans="1:11" ht="12" customHeight="1"/>
+    <row r="46" spans="1:11" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="44">
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A12:K12"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2960,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.2">
       <c r="A1" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -2980,7 +4443,7 @@
     </row>
     <row r="3" spans="1:7" ht="13.8">
       <c r="B3" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -2990,7 +4453,7 @@
     </row>
     <row r="4" spans="1:7" ht="13.8">
       <c r="B4" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="89"/>
       <c r="D4" s="19"/>
@@ -3019,22 +4482,22 @@
     <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="19"/>
       <c r="B7" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="56" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="65" customFormat="1" ht="13.8">
@@ -3048,7 +4511,7 @@
       </c>
       <c r="D8" s="72">
         <f>Samples!B6</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="71">
         <f>Samples!B7</f>
@@ -3060,7 +4523,7 @@
       </c>
       <c r="G8" s="72">
         <f>Samples!D7</f>
-        <v>-8</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8">
@@ -3076,11 +4539,11 @@
       <c r="A10" s="19"/>
       <c r="B10" s="57"/>
       <c r="C10" s="58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="59">
         <f>SUM(D6:D9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="59">
         <f>SUM(E6:E9)</f>
@@ -3092,7 +4555,7 @@
       </c>
       <c r="G10" s="60">
         <f>SUM(G6:G9)</f>
-        <v>-8</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8">
@@ -3108,15 +4571,15 @@
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="23">
         <f>(D10+E10)*100/G10</f>
-        <v>-50</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="24"/>
     </row>
@@ -3124,15 +4587,15 @@
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="23">
         <f>D10*100/G10</f>
-        <v>-50</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="24"/>
     </row>

--- a/TestCase_Nhom10.xlsx
+++ b/TestCase_Nhom10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\equipment-maintenance-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E5D2C-D2D2-4D22-ACA5-E52AEB9C049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC99575-ED21-45C8-97C2-E9EC2286C8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -31,22 +31,11 @@
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
   <si>
     <t>TC1</t>
   </si>
@@ -199,36 +188,12 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>CR236 "Export all carrier choices"</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Update testcase</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Test Leader 01</t>
-  </si>
-  <si>
-    <t>Sample Project</t>
-  </si>
-  <si>
     <t>CR100 - Export to excel</t>
   </si>
   <si>
     <t xml:space="preserve">CR1 - </t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
     <t>DeviceManagementSystem</t>
   </si>
   <si>
@@ -242,9 +207,6 @@
   </si>
   <si>
     <t>1. Kiểm tra chức năng đăng nhập HỢP LỆ</t>
-  </si>
-  <si>
-    <t>1. Kiểm tra chức năng đăng nhập KHÔNG HỢP LỆ</t>
   </si>
   <si>
     <t>TC4</t>
@@ -562,6 +524,1322 @@
       </rPr>
       <t xml:space="preserve"> Chưa nhập password</t>
     </r>
+  </si>
+  <si>
+    <t>Chức năng Đăng nhập</t>
+  </si>
+  <si>
+    <t>Lê Hữu Hậu</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra xem hệ thống </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có bị tấn công SQL Injection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> khi nhập dữ liệu đầu vào tại form đăng nhập</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" bằng chuỗi : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1' or 1=1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Nhập "password" tùy ý : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>abc1234@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhấn login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sai mật khẩu hoặc tài khoản</t>
+    </r>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>Chức năng Thêm Thiết Bị</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị có trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Kiểm tra chức năng thêm thiết bị HỢP LỆ</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị có trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thêm thiết bị thành công.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Nhập tên thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn là</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chọn trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>09/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+5. Nhấn thêm thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Nhập tên thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chọn trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>09/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+5. Nhấn thêm thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Bỏ trống tên thiết bị.
+3. Chọn trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>09/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+5. Nhấn thêm thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bỏ trống 1 ô thông tin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vui lòng điền đầy đủ thông tin.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chức năng Cập Nhật Thiết Bị</t>
+  </si>
+  <si>
+    <t>Dương Hữu Thành</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra chức năng cập nhật thiết bị HỢP LỆ</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng cập nhật thiết bị với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đầy đủ thông tin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật thiết bị thành công.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bàn là
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Đổi tên thiết bị là: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn là v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Chuyển trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Nhấn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiện thị sai thông báo và không cập nhật thiết bị</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng cập nhật thiết bị có trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đã thanh lý</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chuyển trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đã thanh lý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn ngày thanh lý thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+5. Nhấn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng cập nhật thiết bị có  trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang sửa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chuyển sang </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đã thanh lý </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thì phải </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hủy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lịch sửa chữa (đối với thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đã được lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>2. Kiểm tra chức năng đăng nhập KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <t>2. Kiểm tra chức năng thêm thiết bị KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <t>2. Kiểm tra chức năng cập nhật thiết bị KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng cập nhật thiết bị với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bỏ trống</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1 ô thông tin</t>
+    </r>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chức năng cập nhật thiết bị với</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đã thanh lý </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>và nhập ngày thanh lý</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nhỏ hơn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngày nhập thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Bàn là</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chuyển trạng thái là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đang hoạt động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ô tên thiết bị.
+5. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10/04/2025.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Nhấn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Bàn là</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chuyển trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đã thanh lý.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nhập ngày thanh lý</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 08/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Nhấn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày thanh lý phải lớn hơn ngày nhập.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chức năng cập nhật thiết bị với</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đã thanh lý </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>không</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nhập ngày thanh lý.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Bàn là</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chuyển trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đã thanh lý.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bỏ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nhập ngày thanh lý.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Nhấn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vui lòng điền ngày thanh lý.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng cập nhật thiết bị có trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chuyển sang </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> thì phải </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hủy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lịch bảo trì (đối với thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đã được lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chức năng LẬP LỊCH BẢO TRÌ</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra chức năng lập lịch bảo trì HỢP LỆ</t>
+  </si>
+  <si>
+    <t>TC16</t>
   </si>
 </sst>
 </file>
@@ -572,7 +1850,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -724,12 +2002,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -746,8 +2018,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +2073,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1278,7 +2579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1478,9 +2779,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,12 +2805,64 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1573,9 +2923,18 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,69 +2953,24 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Functional Test Case v1.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1680,13 +2994,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56744</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>40532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2814734</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1563809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1724,13 +3038,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>23326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2760306</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1586204</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1768,13 +3082,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>25831</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>27363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2736273</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1498023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1812,13 +3126,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>60615</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2788229</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1489363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1856,13 +3170,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2770908</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1604496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1888,6 +3202,402 @@
         <a:xfrm>
           <a:off x="8780318" y="8918864"/>
           <a:ext cx="2675658" cy="1552541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1533525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2871898</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1423683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Hình ảnh 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F14F82-F85D-4A28-AF31-50D886BEDA50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782175" y="10429875"/>
+          <a:ext cx="2729023" cy="1547508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2838449</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1557867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CAC640-0D7F-BC53-B424-C5446A7BBA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858374" y="12477750"/>
+          <a:ext cx="2619375" cy="1548342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235721</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1547484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1AF431-EB89-B312-6A96-8F7A1F823A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9875021" y="14135100"/>
+          <a:ext cx="2564629" cy="1490334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2839644</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1572326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED2423E-B193-AFB5-5E25-90FB1AA543B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="15906423"/>
+          <a:ext cx="2601519" cy="1525028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>291270</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2811068</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1505644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F135F50-2077-2E3D-BDD9-D50E1730A06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9930570" y="17821275"/>
+          <a:ext cx="2519798" cy="1467544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2744395</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1505653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2115744-1C9A-C23A-EEE7-112738E74D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953624" y="19432111"/>
+          <a:ext cx="2430071" cy="1428342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2839642</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1543752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286CD737-D35B-901A-E0FA-FB02A571E35C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="24264814"/>
+          <a:ext cx="2496742" cy="1472438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2839643</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1524701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6427848C-2036-C263-07D9-460B0C117E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="25805007"/>
+          <a:ext cx="2525318" cy="1484819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2877741</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1572330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD431799-E636-8210-6DD0-BFD563C3113A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="27402298"/>
+          <a:ext cx="2563416" cy="1516307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2202,23 +3912,23 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="22.2">
+    <row r="2" spans="1:8" ht="22.5">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -2248,14 +3958,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="25"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
@@ -2269,11 +3979,11 @@
       <c r="B6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
+      <c r="C6" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
@@ -2282,9 +3992,11 @@
       <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
+      <c r="C7" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
@@ -2311,7 +4023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="34" customFormat="1" ht="26.4">
+    <row r="11" spans="1:8" s="34" customFormat="1" ht="25.5">
       <c r="B11" s="50" t="s">
         <v>12</v>
       </c>
@@ -2330,13 +4042,13 @@
       <c r="G11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="82" t="s">
+      <c r="H11" s="81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="34" customFormat="1" ht="26.4">
+    <row r="12" spans="1:8" s="34" customFormat="1">
       <c r="B12" s="36">
-        <v>39293</v>
+        <v>45726</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>41</v>
@@ -2346,56 +4058,32 @@
         <v>13</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="34" customFormat="1" ht="26.4">
-      <c r="B13" s="89">
-        <v>39295</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>43</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G12" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="82"/>
+    </row>
+    <row r="13" spans="1:8" s="34" customFormat="1">
+      <c r="B13" s="88"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="35" customFormat="1" ht="26.4">
-      <c r="B14" s="36">
-        <v>39311</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>45</v>
-      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="82"/>
+    </row>
+    <row r="14" spans="1:8" s="35" customFormat="1" ht="12.75">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="35" customFormat="1" ht="13.2">
+      <c r="E14" s="39"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="82"/>
+    </row>
+    <row r="15" spans="1:8" s="35" customFormat="1" ht="12.75">
       <c r="B15" s="43"/>
       <c r="C15" s="44"/>
       <c r="D15" s="41"/>
@@ -2497,50 +4185,50 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="41.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="9" style="87"/>
-    <col min="11" max="11" width="18" style="86" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.25" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="9" style="86"/>
+    <col min="11" max="11" width="18" style="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="90"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="90"/>
+      <c r="J2" s="89"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
     </row>
@@ -2548,63 +4236,63 @@
       <c r="A3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
+      <c r="B3" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="13.2">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="77" customFormat="1" ht="26.4">
+    <row r="5" spans="1:12" s="77" customFormat="1" ht="12.75">
       <c r="A5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
+      <c r="B5" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="115"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
       <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="84">
-        <f>COUNTIF(J12:J18,"Pass")</f>
-        <v>4</v>
+      <c r="B6" s="83">
+        <f>COUNTIF(J13:J100,"Pass")</f>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
@@ -2617,312 +4305,706 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="85">
-        <f>COUNTIF(J12:J18,"Fail")</f>
-        <v>0</v>
+      <c r="B7" s="84">
+        <f>COUNTIF(J13:J60,"Failed")</f>
+        <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="64">
-        <f>COUNTA(A12:A18) -15</f>
-        <v>-8</v>
+        <f>COUNTA(A13:A38) -10</f>
+        <v>16</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="79" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="114" t="s">
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="78"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="123"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="80" customFormat="1" ht="15">
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
+    </row>
+    <row r="12" spans="1:12" s="99" customFormat="1" ht="15.75">
+      <c r="A12" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="12.75">
+      <c r="A13" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="110"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="130.9" customHeight="1" outlineLevel="1">
+      <c r="A14" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="78"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="80" customFormat="1" ht="15">
-      <c r="A11" s="110"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="13.2">
-      <c r="A12" s="122" t="s">
+      <c r="D14" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="100">
+        <v>45740</v>
+      </c>
+      <c r="J14" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="96"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A15" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="110"/>
+    </row>
+    <row r="16" spans="1:12" ht="127.9" customHeight="1">
+      <c r="A16" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="124"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="130.80000000000001" customHeight="1" outlineLevel="1">
-      <c r="A13" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="126" t="s">
+      <c r="C16" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="98">
+        <v>45741</v>
+      </c>
+      <c r="J16" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="127.9" customHeight="1">
+      <c r="A17" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="98">
+        <v>45741</v>
+      </c>
+      <c r="J17" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="96"/>
+    </row>
+    <row r="18" spans="1:11" ht="123.6" customHeight="1">
+      <c r="A18" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="98">
+        <v>45741</v>
+      </c>
+      <c r="J18" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="96"/>
+    </row>
+    <row r="19" spans="1:11" ht="130.9" customHeight="1">
+      <c r="A19" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="B19" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132">
-        <v>45740</v>
-      </c>
-      <c r="J13" s="133" t="s">
+      <c r="C19" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="98">
+        <v>45741</v>
+      </c>
+      <c r="J19" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="134"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A14" s="122" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-    </row>
-    <row r="15" spans="1:12" ht="127.8" customHeight="1">
-      <c r="A15" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="135" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="138">
+      <c r="K19" s="96"/>
+    </row>
+    <row r="20" spans="1:11" ht="121.5" customHeight="1">
+      <c r="A20" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="98">
         <v>45741</v>
       </c>
-      <c r="J15" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="134" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="127.8" customHeight="1">
-      <c r="A16" s="125" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="138">
-        <v>45741</v>
-      </c>
-      <c r="J16" s="133" t="s">
+      <c r="J20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="134"/>
-    </row>
-    <row r="17" spans="1:11" ht="123.6" customHeight="1">
-      <c r="A17" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="138">
-        <v>45741</v>
-      </c>
-      <c r="J17" s="133" t="s">
+      <c r="K20" s="96"/>
+    </row>
+    <row r="21" spans="1:11" ht="12" customHeight="1">
+      <c r="A21" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="107"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A22" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
+    </row>
+    <row r="23" spans="1:11" ht="126.75" customHeight="1">
+      <c r="A23" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="98">
+        <v>45756</v>
+      </c>
+      <c r="J23" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="134"/>
-    </row>
-    <row r="18" spans="1:11" ht="130.80000000000001" customHeight="1">
-      <c r="A18" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="138">
-        <v>45741</v>
-      </c>
-      <c r="J18" s="133" t="s">
+      <c r="K23" s="96"/>
+    </row>
+    <row r="24" spans="1:11" ht="123" customHeight="1">
+      <c r="A24" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="98">
+        <v>45756</v>
+      </c>
+      <c r="J24" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="134"/>
-    </row>
-    <row r="19" spans="1:11" ht="12" customHeight="1">
-      <c r="E19" s="121"/>
-    </row>
-    <row r="20" spans="1:11" ht="12" customHeight="1"/>
-    <row r="21" spans="1:11" ht="12" customHeight="1"/>
-    <row r="22" spans="1:11" ht="12" customHeight="1"/>
-    <row r="23" spans="1:11" ht="12" customHeight="1"/>
-    <row r="24" spans="1:11" ht="12" customHeight="1"/>
-    <row r="25" spans="1:11" ht="12" customHeight="1"/>
-    <row r="26" spans="1:11" ht="12" customHeight="1"/>
-    <row r="27" spans="1:11" ht="12" customHeight="1"/>
-    <row r="28" spans="1:11" ht="12" customHeight="1"/>
-    <row r="29" spans="1:11" ht="12" customHeight="1"/>
-    <row r="30" spans="1:11" ht="12" customHeight="1"/>
-    <row r="31" spans="1:11" ht="12" customHeight="1"/>
-    <row r="32" spans="1:11" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
+      <c r="K24" s="96"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A25" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
+    </row>
+    <row r="26" spans="1:11" ht="127.5" customHeight="1">
+      <c r="A26" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="98">
+        <v>45756</v>
+      </c>
+      <c r="J26" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="96"/>
+    </row>
+    <row r="27" spans="1:11" ht="12" customHeight="1">
+      <c r="A27" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="107"/>
+    </row>
+    <row r="28" spans="1:11" ht="12" customHeight="1">
+      <c r="A28" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
+    </row>
+    <row r="29" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A29" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J29" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A30" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J30" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="96"/>
+    </row>
+    <row r="31" spans="1:11" ht="123" customHeight="1">
+      <c r="A31" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="93"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="145">
+        <v>45757</v>
+      </c>
+      <c r="J31" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="96"/>
+    </row>
+    <row r="32" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A32" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="93"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="145">
+        <v>45757</v>
+      </c>
+      <c r="J32" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="96"/>
+    </row>
+    <row r="33" spans="1:11" ht="12" customHeight="1">
+      <c r="A33" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
+    </row>
+    <row r="34" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J34" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="96"/>
+    </row>
+    <row r="35" spans="1:11" ht="124.5" customHeight="1">
+      <c r="A35" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J35" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="96"/>
+    </row>
+    <row r="36" spans="1:11" ht="126" customHeight="1">
+      <c r="A36" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J36" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="96"/>
+    </row>
+    <row r="37" spans="1:11" ht="12" customHeight="1">
+      <c r="A37" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="107"/>
+    </row>
+    <row r="38" spans="1:11" ht="12" customHeight="1">
+      <c r="A38" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="110"/>
+    </row>
+    <row r="39" spans="1:11" ht="12" customHeight="1"/>
+    <row r="40" spans="1:11" ht="12" customHeight="1"/>
+    <row r="41" spans="1:11" ht="12" customHeight="1"/>
+    <row r="42" spans="1:11" ht="12" customHeight="1"/>
+    <row r="43" spans="1:11" ht="12" customHeight="1"/>
+    <row r="44" spans="1:11" ht="12" customHeight="1"/>
+    <row r="45" spans="1:11" ht="12" customHeight="1"/>
+    <row r="46" spans="1:11" ht="12" customHeight="1"/>
+    <row r="47" spans="1:11" ht="12" customHeight="1"/>
+    <row r="48" spans="1:11" ht="12" customHeight="1"/>
     <row r="49" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="46">
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A12:K12"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2935,6 +5017,14 @@
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2949,16 +5039,16 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.2">
+    <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -2978,7 +5068,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
@@ -2988,17 +5078,17 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="13.8">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="13.8">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -3007,7 +5097,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -3016,7 +5106,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="26.4">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="19"/>
       <c r="B7" s="53" t="s">
         <v>18</v>
@@ -3037,7 +5127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="65" customFormat="1" ht="13.8">
+    <row r="8" spans="1:7" s="65" customFormat="1" ht="14.25">
       <c r="A8" s="69"/>
       <c r="B8" s="70">
         <v>1</v>
@@ -3048,11 +5138,11 @@
       </c>
       <c r="D8" s="72">
         <f>Samples!B6</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E8" s="71">
         <f>Samples!B7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="71">
         <f>Samples!D6</f>
@@ -3060,10 +5150,10 @@
       </c>
       <c r="G8" s="72">
         <f>Samples!D7</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="19"/>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
@@ -3072,7 +5162,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="13.8">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="19"/>
       <c r="B10" s="57"/>
       <c r="C10" s="58" t="s">
@@ -3080,11 +5170,11 @@
       </c>
       <c r="D10" s="59">
         <f>SUM(D6:D9)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E10" s="59">
         <f>SUM(E6:E9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="59">
         <f>SUM(F6:F9)</f>
@@ -3092,10 +5182,10 @@
       </c>
       <c r="G10" s="60">
         <f>SUM(G6:G9)</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -3104,7 +5194,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
@@ -3113,14 +5203,14 @@
       <c r="D12" s="19"/>
       <c r="E12" s="23">
         <f>(D10+E10)*100/G10</f>
-        <v>-50</v>
+        <v>100</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
@@ -3129,7 +5219,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="23">
         <f>D10*100/G10</f>
-        <v>-50</v>
+        <v>87.5</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>23</v>

--- a/TestCase_Nhom10.xlsx
+++ b/TestCase_Nhom10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\equipment-maintenance-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC99575-ED21-45C8-97C2-E9EC2286C8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6FE99-04AF-46A1-A13D-D859B38D1B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
   <si>
     <t>TC1</t>
   </si>
@@ -1840,6 +1840,2121 @@
   </si>
   <si>
     <t>TC16</t>
+  </si>
+  <si>
+    <t>3. Kiểm tra chức năng đăng nhập bằng tài khoản bị khóa HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" bằng chuỗi : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lehuuhau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Nhập "password" tùy ý.
+4. Nhấn login 5 lần.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vui lòng chờ sau 5 phút để đăng nhập.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sau </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">5 phút </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>được đăng nhập lại bình thường.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập sai mật khẩu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5 lần</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bị vô hiệu hóa đăng nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5 phút</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" bằng chuỗi : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lehuuhau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Nhập "password":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lehuuhau1231@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Nhấn login.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hiện ra trang Danh sách thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng đăng nhập sau khi bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">vô hiệu hóa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>trong 5 phút</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" bằng chuỗi : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lehuuhau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Nhập "password" tùy ý.
+4. Nhấn login.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bị vô hiệu hóa.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Kiểm tra chức năng đăng nhập bằng tài khoản bị khóa HỢP LỆ</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đầy đủ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thông tin có ngày bảo trì từ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3 đến 6 tháng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lưu thành công.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đầy đủ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thông tin có nhân viên không </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lịch trùng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/07/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đầy đủ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thông tin với thiết bị bảo trì lần 2 cách lần 1 từ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6 tháng trở lên.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/07/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bàn ủi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12/01/2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gửi email cho nhân viên trước 24h ngày bảo trì.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đầy đủ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thông tin với thiết bị có trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy tính </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện email gửi cho nhân viên </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>trước 24h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thời gian bảo trì là 13h.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thời gian bảo trì là 9h.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12/07/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thời gian bảo trì là 17h.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/07/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Kiểm tra chức năng lập lịch bảo trì KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bỏ trống</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1 ô thông tin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy tính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/07/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+6. Bỏ chọn nhân viên.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vui lòng điền đầy đủ thông tin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Không hiện thông báo</t>
+  </si>
+  <si>
+    <t>Chưa gửi được email</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +4201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2572,6 +4687,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2579,7 +4703,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2836,12 +4960,27 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2854,14 +4993,47 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2896,12 +5068,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2923,50 +5089,17 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3213,15 +5346,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1533525</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2871898</xdr:colOff>
+      <xdr:colOff>2890948</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1423683</xdr:rowOff>
+      <xdr:rowOff>1614183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3244,7 +5377,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9782175" y="10429875"/>
+          <a:off x="9801225" y="10620375"/>
           <a:ext cx="2729023" cy="1547508"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3258,13 +5391,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2838449</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1557867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3302,13 +5435,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>235721</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2800350</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1547484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3346,13 +5479,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2839644</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1572326</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3390,13 +5523,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>291270</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2811068</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1505644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3434,13 +5567,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>77311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2744395</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1505653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3478,13 +5611,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>71314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2839642</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1543752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3522,13 +5655,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>39882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2839643</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1524701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3566,13 +5699,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>56023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2877741</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1572330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3598,6 +5731,475 @@
         <a:xfrm>
           <a:off x="9953625" y="27402298"/>
           <a:ext cx="2563416" cy="1516307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1952624" cy="1484335"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38337F85-F571-4ABF-8F0D-C673E1CEC45D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763126" y="14135100"/>
+          <a:ext cx="1952624" cy="1484335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2706294</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1515168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2854D7B-C8F7-2B99-ED9D-066B5B745A9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="14136328"/>
+          <a:ext cx="2525319" cy="1466315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1506047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6653594B-7D1D-5BFD-41E2-256BBD6CDC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="15906750"/>
+          <a:ext cx="1743075" cy="1486997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2823441</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1543050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E8FEC8-1C39-9428-9E0F-2B8D96CB17DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="34632900"/>
+          <a:ext cx="2594841" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312839</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1458695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D23B87C-F422-4A5F-B676-5508EB418F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9952139" y="36242625"/>
+          <a:ext cx="2411311" cy="1430120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>58106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2905125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1617275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB109D-4B51-CBEC-AEF5-E82F0E0BCBCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915525" y="37824731"/>
+          <a:ext cx="2628900" cy="1559169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2594841" cy="1524000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C76E0E-21DA-4989-B167-ED0F935889E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9886950" y="34651950"/>
+          <a:ext cx="2594841" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2594841" cy="1524000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3B1B93-F039-452D-B295-CFF85349D39C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="42776775"/>
+          <a:ext cx="2594841" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176592</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2838450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1607760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BA0C89-E080-C9C9-79B8-B31B2E44C350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9815892" y="44462700"/>
+          <a:ext cx="2661858" cy="1569660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179451</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2943225</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1674743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A01EDF-DA97-574C-15C9-3CB831C33887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9818751" y="46129575"/>
+          <a:ext cx="2763774" cy="1617593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204597</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2858688</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1610425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F262E6-59ED-3B93-CF74-D36CC585BBF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9843897" y="47967900"/>
+          <a:ext cx="2654091" cy="1562800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3979,11 +6581,11 @@
       <c r="B6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
@@ -3992,11 +6594,11 @@
       <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
@@ -4060,7 +6662,7 @@
       <c r="F12" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="142" t="s">
+      <c r="G12" s="103" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="82"/>
@@ -4183,10 +6785,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -4206,9 +6808,9 @@
       <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -4220,9 +6822,9 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -4236,54 +6838,54 @@
       <c r="A3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" s="77" customFormat="1" ht="12.75">
       <c r="A5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="132"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
       <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4291,23 +6893,23 @@
         <v>39</v>
       </c>
       <c r="B6" s="83">
-        <f>COUNTIF(J13:J100,"Pass")</f>
-        <v>14</v>
+        <f>COUNTIF(J13:J106,"Pass")</f>
+        <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(J10:J733,"Pending")</f>
+        <f>COUNTIF(J10:J739,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4315,30 +6917,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="84">
-        <f>COUNTIF(J13:J60,"Failed")</f>
-        <v>2</v>
+        <f>COUNTIF(J13:J66,"Failed")</f>
+        <v>4</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="64">
-        <f>COUNTA(A13:A38) -10</f>
-        <v>16</v>
+        <f>COUNTA(A13:A100) -12</f>
+        <v>29</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -4349,91 +6951,91 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="79" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="132" t="s">
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="I9" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="122" t="s">
+      <c r="J9" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="122" t="s">
+      <c r="K9" s="118" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="78"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="123"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="80" customFormat="1" ht="15">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="128"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
     </row>
     <row r="12" spans="1:12" s="99" customFormat="1" ht="15.75">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="12.75">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="130.9" customHeight="1" outlineLevel="1">
       <c r="A14" s="91" t="s">
@@ -4445,11 +7047,11 @@
       <c r="C14" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="133" t="s">
+      <c r="D14" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="95"/>
       <c r="H14" s="94"/>
       <c r="I14" s="100">
@@ -4461,19 +7063,19 @@
       <c r="K14" s="96"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:12" ht="127.9" customHeight="1">
       <c r="A16" s="91" t="s">
@@ -4485,17 +7087,17 @@
       <c r="C16" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="95"/>
       <c r="H16" s="94"/>
       <c r="I16" s="98">
         <v>45741</v>
       </c>
-      <c r="J16" s="141" t="s">
+      <c r="J16" s="102" t="s">
         <v>50</v>
       </c>
       <c r="K16" s="96" t="s">
@@ -4512,11 +7114,11 @@
       <c r="C17" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="95"/>
       <c r="H17" s="94"/>
       <c r="I17" s="98">
@@ -4537,11 +7139,11 @@
       <c r="C18" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="95"/>
       <c r="H18" s="94"/>
       <c r="I18" s="98">
@@ -4562,11 +7164,11 @@
       <c r="C19" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="95"/>
       <c r="H19" s="94"/>
       <c r="I19" s="98">
@@ -4577,7 +7179,7 @@
       </c>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" ht="121.5" customHeight="1">
+    <row r="20" spans="1:11" ht="138" customHeight="1">
       <c r="A20" s="91" t="s">
         <v>73</v>
       </c>
@@ -4587,11 +7189,11 @@
       <c r="C20" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="95"/>
       <c r="H20" s="94"/>
       <c r="I20" s="98">
@@ -4602,307 +7204,305 @@
       </c>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" ht="12" customHeight="1">
+    <row r="21" spans="1:11" ht="16.5" customHeight="1">
       <c r="A21" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="107"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A22" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="110"/>
-    </row>
-    <row r="23" spans="1:11" ht="126.75" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+    </row>
+    <row r="22" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A22" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J22" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="96"/>
+    </row>
+    <row r="23" spans="1:11" ht="123.75" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
+        <v>124</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="95"/>
       <c r="H23" s="94"/>
       <c r="I23" s="98">
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="J23" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" ht="123" customHeight="1">
-      <c r="A24" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="93" t="s">
+    <row r="24" spans="1:11" ht="18" customHeight="1">
+      <c r="A24" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
+    </row>
+    <row r="25" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A25" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J25" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="96"/>
+    </row>
+    <row r="26" spans="1:11" ht="12" customHeight="1">
+      <c r="A26" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="112"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A27" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="1:11" ht="126.75" customHeight="1">
+      <c r="A28" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="98">
+        <v>45756</v>
+      </c>
+      <c r="J28" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="96"/>
+    </row>
+    <row r="29" spans="1:11" ht="123" customHeight="1">
+      <c r="A29" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C29" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D29" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="98">
-        <v>45756</v>
-      </c>
-      <c r="J24" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="96"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A25" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
-    </row>
-    <row r="26" spans="1:11" ht="127.5" customHeight="1">
-      <c r="A26" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="98">
-        <v>45756</v>
-      </c>
-      <c r="J26" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="96"/>
-    </row>
-    <row r="27" spans="1:11" ht="12" customHeight="1">
-      <c r="A27" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
-    </row>
-    <row r="28" spans="1:11" ht="12" customHeight="1">
-      <c r="A28" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="110"/>
-    </row>
-    <row r="29" spans="1:11" ht="123.75" customHeight="1">
-      <c r="A29" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="95"/>
       <c r="H29" s="94"/>
       <c r="I29" s="98">
-        <v>45757</v>
-      </c>
-      <c r="J29" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="123.75" customHeight="1">
-      <c r="A30" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="98">
-        <v>45757</v>
-      </c>
-      <c r="J30" s="101" t="s">
+        <v>45756</v>
+      </c>
+      <c r="J29" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="96"/>
-    </row>
-    <row r="31" spans="1:11" ht="123" customHeight="1">
+      <c r="K29" s="96"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A30" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="108"/>
+    </row>
+    <row r="31" spans="1:11" ht="127.5" customHeight="1">
       <c r="A31" s="91" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="145">
-        <v>45757</v>
+        <v>84</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="98">
+        <v>45756</v>
       </c>
       <c r="J31" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11" ht="122.25" customHeight="1">
-      <c r="A32" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="145">
-        <v>45757</v>
-      </c>
-      <c r="J32" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="96"/>
+    <row r="32" spans="1:11" ht="12" customHeight="1">
+      <c r="A32" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="112"/>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1">
-      <c r="A33" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="110"/>
+      <c r="A33" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="108"/>
     </row>
     <row r="34" spans="1:11" ht="123.75" customHeight="1">
       <c r="A34" s="91" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B34" s="93" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
+        <v>94</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
       <c r="G34" s="95"/>
       <c r="H34" s="94"/>
       <c r="I34" s="98">
         <v>45757</v>
       </c>
-      <c r="J34" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="96"/>
-    </row>
-    <row r="35" spans="1:11" ht="124.5" customHeight="1">
+      <c r="J34" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="123.75" customHeight="1">
       <c r="A35" s="91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
+        <v>97</v>
+      </c>
+      <c r="D35" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
       <c r="G35" s="95"/>
-      <c r="H35" s="94"/>
+      <c r="H35" s="146"/>
       <c r="I35" s="98">
         <v>45757</v>
       </c>
@@ -4911,24 +7511,20 @@
       </c>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" ht="126" customHeight="1">
+    <row r="36" spans="1:11" ht="123" customHeight="1">
       <c r="A36" s="91" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="98">
+        <v>114</v>
+      </c>
+      <c r="C36" s="93"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="145">
         <v>45757</v>
       </c>
       <c r="J36" s="101" t="s">
@@ -4936,71 +7532,418 @@
       </c>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" ht="12" customHeight="1">
-      <c r="A37" s="106" t="s">
+    <row r="37" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A37" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="93"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="145">
+        <v>45757</v>
+      </c>
+      <c r="J37" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="96"/>
+    </row>
+    <row r="38" spans="1:11" ht="12" customHeight="1">
+      <c r="A38" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="108"/>
+    </row>
+    <row r="39" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A39" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J39" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="96"/>
+    </row>
+    <row r="40" spans="1:11" ht="124.5" customHeight="1">
+      <c r="A40" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J40" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="96"/>
+    </row>
+    <row r="41" spans="1:11" ht="126" customHeight="1">
+      <c r="A41" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J41" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="96"/>
+    </row>
+    <row r="42" spans="1:11" ht="12" customHeight="1">
+      <c r="A42" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="107"/>
-    </row>
-    <row r="38" spans="1:11" ht="12" customHeight="1">
-      <c r="A38" s="108" t="s">
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="112"/>
+    </row>
+    <row r="43" spans="1:11" ht="12" customHeight="1">
+      <c r="A43" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="110"/>
-    </row>
-    <row r="39" spans="1:11" ht="12" customHeight="1"/>
-    <row r="40" spans="1:11" ht="12" customHeight="1"/>
-    <row r="41" spans="1:11" ht="12" customHeight="1"/>
-    <row r="42" spans="1:11" ht="12" customHeight="1"/>
-    <row r="43" spans="1:11" ht="12" customHeight="1"/>
-    <row r="44" spans="1:11" ht="12" customHeight="1"/>
-    <row r="45" spans="1:11" ht="12" customHeight="1"/>
-    <row r="46" spans="1:11" ht="12" customHeight="1"/>
-    <row r="47" spans="1:11" ht="12" customHeight="1"/>
-    <row r="48" spans="1:11" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="108"/>
+    </row>
+    <row r="44" spans="1:11" ht="129" customHeight="1">
+      <c r="A44" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J44" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="96"/>
+    </row>
+    <row r="45" spans="1:11" ht="126" customHeight="1">
+      <c r="A45" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J45" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="96"/>
+    </row>
+    <row r="46" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A46" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J46" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="96"/>
+    </row>
+    <row r="47" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A47" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J47" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="96"/>
+    </row>
+    <row r="48" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A48" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J48" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" s="96" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="135.75" customHeight="1">
+      <c r="A49" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="98">
+        <v>45758</v>
+      </c>
+      <c r="J49" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="96"/>
+    </row>
+    <row r="50" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A50" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="98">
+        <v>45758</v>
+      </c>
+      <c r="J50" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="96"/>
+    </row>
+    <row r="51" spans="1:11" ht="133.5" customHeight="1">
+      <c r="A51" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="98">
+        <v>45758</v>
+      </c>
+      <c r="J51" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="96"/>
+    </row>
+    <row r="52" spans="1:11" ht="12" customHeight="1">
+      <c r="A52" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="108"/>
+    </row>
+    <row r="53" spans="1:11" ht="136.5" customHeight="1">
+      <c r="A53" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J53" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="K53" s="96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="12" customHeight="1"/>
+    <row r="55" spans="1:11" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A28:K28"/>
+  <mergeCells count="61">
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A30:K30"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -5017,14 +7960,28 @@
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A42:K42"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5138,11 +8095,11 @@
       </c>
       <c r="D8" s="72">
         <f>Samples!B6</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8" s="71">
         <f>Samples!B7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="71">
         <f>Samples!D6</f>
@@ -5150,7 +8107,7 @@
       </c>
       <c r="G8" s="72">
         <f>Samples!D7</f>
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -5170,11 +8127,11 @@
       </c>
       <c r="D10" s="59">
         <f>SUM(D6:D9)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E10" s="59">
         <f>SUM(E6:E9)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="59">
         <f>SUM(F6:F9)</f>
@@ -5182,7 +8139,7 @@
       </c>
       <c r="G10" s="60">
         <f>SUM(G6:G9)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -5203,7 +8160,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="23">
         <f>(D10+E10)*100/G10</f>
-        <v>100</v>
+        <v>96.551724137931032</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>23</v>
@@ -5219,7 +8176,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="23">
         <f>D10*100/G10</f>
-        <v>87.5</v>
+        <v>82.758620689655174</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>23</v>

--- a/TestCase_Nhom10.xlsx
+++ b/TestCase_Nhom10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\equipment-maintenance-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6FE99-04AF-46A1-A13D-D859B38D1B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC7B8B-AF2C-4A41-9AB8-18E24D3C0689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
   <si>
     <t>TC1</t>
   </si>
@@ -1914,40 +1914,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Nhập sai mật khẩu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5 lần</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> bị vô hiệu hóa đăng nhập </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5 phút</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. Vào trang đăng nhập 
 2. Nhập "username" bằng chuỗi : </t>
     </r>
@@ -2087,9 +2053,6 @@
     </r>
   </si>
   <si>
-    <t>4. Kiểm tra chức năng đăng nhập bằng tài khoản bị khóa HỢP LỆ</t>
-  </si>
-  <si>
     <t>TC20</t>
   </si>
   <si>
@@ -3955,6 +3918,626 @@
   </si>
   <si>
     <t>Chưa gửi được email</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra nhập sai mật khẩu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5 lần</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bị vô hiệu hóa đăng nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5 phút</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Kiểm tra chức năng đăng nhập bằng tài khoản bị khóa KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra nhập sai mật khẩu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 4 lần</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lần thứ 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nhập đúng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang đăng nhập 
+2. Nhập "username" bằng chuỗi : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lehuuhau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Nhập "password" tùy ý.
+4. Nhấn login 4 lần.
+5. Nhập đúng mật khẩu: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lehuuhau1231@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+6. Nhấn login.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhập kí tự đặc biệt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chặn mọi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kí tự đặc biệt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> được nhấn từ bàn phím.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Nhập tên thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>@#$%^*&amp;&amp;*(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. Chọn trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+5. Nhấn thêm thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chọn ngày nhập thiết bị lớn hơn ngày hiện tại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hiện thông báo N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gày nhập thiết bị phải là ngày hiện tại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Nhập tên thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy sấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. Chọn trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+5. Nhấn thêm thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chọn ngày nhập thiết bị nhỏ hơn ngày hiện tại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Nhập tên thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy sấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. Chọn trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+5. Nhấn thêm thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhấn chọn thiết bị đã có trong danh sách.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vô hiệu hóa nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thêm thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị trong danh sách.
+3. Nhấn thêm thiết bị.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhập tên thiết bị tới 51 kí tự.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Nhập tên thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a1b2c3d4e5f6g7h8i9j0k1l2m3n4o5p6q7r8s9t0u1v2w3x4y5z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chọn trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/04/2025.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Nhấn thêm thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tên thiết bị tối đa 50 kí tự.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng thêm thiết bị khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tên thiết bị chỉ có kí tự Space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Nhập tên thiết bị:                     
+3. Chọn trạng thái là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hỏng hóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn ngày nhập thiết bị: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/04/2025.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Nhấn thêm thiết bị.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4703,7 +5286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4966,12 +5549,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4981,124 +5579,112 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5391,13 +5977,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2838449</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1557867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5435,13 +6021,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>235721</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2800350</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1547484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5478,15 +6064,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47298</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2839644</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1572326</xdr:rowOff>
+      <xdr:colOff>2887269</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1562801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5509,7 +6095,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9877425" y="15906423"/>
+          <a:off x="9925050" y="22831098"/>
           <a:ext cx="2601519" cy="1525028"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5523,13 +6109,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>291270</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2811068</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1505644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5567,13 +6153,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>77311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2744395</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1505653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5611,13 +6197,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>71314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2839642</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>1543752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5655,13 +6241,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>39882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2839643</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1524701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5699,13 +6285,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>56023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2877741</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>1572330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5826,13 +6412,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1506047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5870,13 +6456,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2823441</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>1543050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5914,13 +6500,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>312839</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2724150</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>1458695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5958,13 +6544,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>58106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2905125</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1617275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6002,7 +6588,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2594841" cy="1524000"/>
@@ -6041,7 +6627,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2594841" cy="1524000"/>
@@ -6080,13 +6666,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>176592</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2838450</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>1607760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6124,13 +6710,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>179451</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2943225</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>1674743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6168,13 +6754,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>204597</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2858688</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>1610425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6200,6 +6786,309 @@
         <a:xfrm>
           <a:off x="9843897" y="47967900"/>
           <a:ext cx="2654091" cy="1562800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48853</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2525319" cy="1466315"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E65801E-E8A9-4509-9864-19D1065EA888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="14136328"/>
+          <a:ext cx="2525319" cy="1466315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307316</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2820589</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1515174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F1EED5-4493-8609-6450-0196515DFA96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9946616" y="24450675"/>
+          <a:ext cx="2513273" cy="1477074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2792020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1486599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB118E0-C66F-F88F-D4DC-D9C582F6191D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9952900" y="26069925"/>
+          <a:ext cx="2478420" cy="1448499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295184</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2869841</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1552575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EAB130-9975-1EF7-91A1-40F7AB493E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934484" y="27708225"/>
+          <a:ext cx="2574657" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2823370</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1571626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50BC19C-17F6-3C74-2CB1-8F75C2D38100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="29317951"/>
+          <a:ext cx="2613820" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2792018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1572316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F14C276-4874-90D1-1771-A23FEC25AE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="30966476"/>
+          <a:ext cx="2582468" cy="1495415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2847975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1533780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB09AA2B-C449-20EF-3ADA-BA3BA02D84A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915524" y="32537400"/>
+          <a:ext cx="2571751" cy="1505205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6581,11 +7470,11 @@
       <c r="B6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="105"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
@@ -6594,11 +7483,11 @@
       <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
@@ -6785,10 +7674,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -6808,9 +7697,9 @@
       <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -6822,9 +7711,9 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -6838,54 +7727,54 @@
       <c r="A3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" s="77" customFormat="1" ht="12.75">
       <c r="A5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
       <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
@@ -6893,23 +7782,23 @@
         <v>39</v>
       </c>
       <c r="B6" s="83">
-        <f>COUNTIF(J13:J106,"Pass")</f>
-        <v>24</v>
+        <f>COUNTIF(J13:J113,"Pass")</f>
+        <v>31</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(J10:J739,"Pending")</f>
+        <f>COUNTIF(J10:J746,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -6917,30 +7806,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="84">
-        <f>COUNTIF(J13:J66,"Failed")</f>
+        <f>COUNTIF(J13:J73,"Failed")</f>
         <v>4</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="64">
-        <f>COUNTA(A13:A100) -12</f>
-        <v>29</v>
+        <f>COUNTA(A13:A107) -13</f>
+        <v>35</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -6951,91 +7840,91 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="79" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="116" t="s">
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="118" t="s">
+      <c r="I9" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="118" t="s">
+      <c r="J9" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="118" t="s">
+      <c r="K9" s="127" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="78"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="80" customFormat="1" ht="15">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="142"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="133"/>
     </row>
     <row r="12" spans="1:12" s="99" customFormat="1" ht="15.75">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="12.75">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="130.9" customHeight="1" outlineLevel="1">
       <c r="A14" s="91" t="s">
@@ -7047,11 +7936,11 @@
       <c r="C14" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="95"/>
       <c r="H14" s="94"/>
       <c r="I14" s="100">
@@ -7063,19 +7952,19 @@
       <c r="K14" s="96"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
     </row>
     <row r="16" spans="1:12" ht="127.9" customHeight="1">
       <c r="A16" s="91" t="s">
@@ -7114,7 +8003,7 @@
       <c r="C17" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="136" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="110"/>
@@ -7164,7 +8053,7 @@
       <c r="C19" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="136" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="110"/>
@@ -7205,26 +8094,26 @@
       <c r="K20" s="96"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="113"/>
     </row>
     <row r="22" spans="1:11" ht="123.75" customHeight="1">
       <c r="A22" s="91" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C22" s="93" t="s">
         <v>119</v>
@@ -7252,10 +8141,10 @@
         <v>122</v>
       </c>
       <c r="C23" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="109" t="s">
         <v>124</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>125</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="110"/>
@@ -7269,110 +8158,110 @@
       </c>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" ht="18" customHeight="1">
-      <c r="A24" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
-    </row>
-    <row r="25" spans="1:11" ht="123.75" customHeight="1">
-      <c r="A25" s="91" t="s">
+    <row r="24" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A24" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B24" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="98">
+        <v>45760</v>
+      </c>
+      <c r="J24" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="96"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1">
+      <c r="A25" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="113"/>
+    </row>
+    <row r="26" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A26" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="98">
+      <c r="D26" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="98">
         <v>45759</v>
       </c>
-      <c r="J25" s="101" t="s">
+      <c r="J26" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="96"/>
-    </row>
-    <row r="26" spans="1:11" ht="12" customHeight="1">
-      <c r="A26" s="111" t="s">
+      <c r="K26" s="96"/>
+    </row>
+    <row r="27" spans="1:11" ht="12" customHeight="1">
+      <c r="A27" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="112"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A27" s="106" t="s">
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="115"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A28" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-    </row>
-    <row r="28" spans="1:11" ht="126.75" customHeight="1">
-      <c r="A28" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="98">
-        <v>45756</v>
-      </c>
-      <c r="J28" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="96"/>
-    </row>
-    <row r="29" spans="1:11" ht="123" customHeight="1">
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="113"/>
+    </row>
+    <row r="29" spans="1:11" ht="126.75" customHeight="1">
       <c r="A29" s="91" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="109" t="s">
         <v>80</v>
@@ -7389,247 +8278,263 @@
       </c>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A30" s="106" t="s">
+    <row r="30" spans="1:11" ht="123" customHeight="1">
+      <c r="A30" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="98">
+        <v>45756</v>
+      </c>
+      <c r="J30" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="96"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A31" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="108"/>
-    </row>
-    <row r="31" spans="1:11" ht="127.5" customHeight="1">
-      <c r="A31" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
+    </row>
+    <row r="32" spans="1:11" ht="127.5" customHeight="1">
+      <c r="A32" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C32" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D32" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="98">
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="98">
         <v>45756</v>
       </c>
-      <c r="J31" s="101" t="s">
+      <c r="J32" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="96"/>
-    </row>
-    <row r="32" spans="1:11" ht="12" customHeight="1">
-      <c r="A32" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="112"/>
-    </row>
-    <row r="33" spans="1:11" ht="12" customHeight="1">
-      <c r="A33" s="106" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="108"/>
-    </row>
-    <row r="34" spans="1:11" ht="123.75" customHeight="1">
+      <c r="K32" s="96"/>
+    </row>
+    <row r="33" spans="1:11" ht="127.5" customHeight="1">
+      <c r="A33" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="98">
+        <v>45760</v>
+      </c>
+      <c r="J33" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="96"/>
+    </row>
+    <row r="34" spans="1:11" ht="127.5" customHeight="1">
       <c r="A34" s="91" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="93" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="E34" s="110"/>
       <c r="F34" s="110"/>
       <c r="G34" s="95"/>
       <c r="H34" s="94"/>
       <c r="I34" s="98">
-        <v>45757</v>
-      </c>
-      <c r="J34" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="123.75" customHeight="1">
+        <v>45760</v>
+      </c>
+      <c r="J34" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="96"/>
+    </row>
+    <row r="35" spans="1:11" ht="127.5" customHeight="1">
       <c r="A35" s="91" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="D35" s="109" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="E35" s="110"/>
       <c r="F35" s="110"/>
       <c r="G35" s="95"/>
-      <c r="H35" s="146"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="98">
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="J35" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" ht="123" customHeight="1">
+    <row r="36" spans="1:11" ht="127.5" customHeight="1">
       <c r="A36" s="91" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="145">
-        <v>45757</v>
+        <v>165</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="98">
+        <v>45760</v>
       </c>
       <c r="J36" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" ht="122.25" customHeight="1">
+    <row r="37" spans="1:11" ht="127.5" customHeight="1">
       <c r="A37" s="91" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B37" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="145">
-        <v>45757</v>
+        <v>168</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="98">
+        <v>45760</v>
       </c>
       <c r="J37" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11" ht="12" customHeight="1">
-      <c r="A38" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="108"/>
-    </row>
-    <row r="39" spans="1:11" ht="123.75" customHeight="1">
-      <c r="A39" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="98">
-        <v>45757</v>
-      </c>
-      <c r="J39" s="101" t="s">
+    <row r="38" spans="1:11" ht="127.5" customHeight="1">
+      <c r="A38" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="98">
+        <v>45760</v>
+      </c>
+      <c r="J38" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="96"/>
-    </row>
-    <row r="40" spans="1:11" ht="124.5" customHeight="1">
-      <c r="A40" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="98">
-        <v>45757</v>
-      </c>
-      <c r="J40" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="96"/>
-    </row>
-    <row r="41" spans="1:11" ht="126" customHeight="1">
+      <c r="K38" s="96"/>
+    </row>
+    <row r="39" spans="1:11" ht="12" customHeight="1">
+      <c r="A39" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="115"/>
+    </row>
+    <row r="40" spans="1:11" ht="12" customHeight="1">
+      <c r="A40" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="113"/>
+    </row>
+    <row r="41" spans="1:11" ht="123.75" customHeight="1">
       <c r="A41" s="91" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B41" s="93" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D41" s="109" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E41" s="110"/>
       <c r="F41" s="110"/>
@@ -7638,59 +8543,73 @@
       <c r="I41" s="98">
         <v>45757</v>
       </c>
-      <c r="J41" s="101" t="s">
+      <c r="J41" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A42" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J42" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="96"/>
-    </row>
-    <row r="42" spans="1:11" ht="12" customHeight="1">
-      <c r="A42" s="111" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="112"/>
-    </row>
-    <row r="43" spans="1:11" ht="12" customHeight="1">
-      <c r="A43" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="108"/>
-    </row>
-    <row r="44" spans="1:11" ht="129" customHeight="1">
+      <c r="K42" s="96"/>
+    </row>
+    <row r="43" spans="1:11" ht="123" customHeight="1">
+      <c r="A43" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="93"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="104">
+        <v>45757</v>
+      </c>
+      <c r="J43" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="96"/>
+    </row>
+    <row r="44" spans="1:11" ht="122.25" customHeight="1">
       <c r="A44" s="91" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B44" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="109" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="98">
+        <v>98</v>
+      </c>
+      <c r="C44" s="93"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="104">
         <v>45757</v>
       </c>
       <c r="J44" s="101" t="s">
@@ -7698,210 +8617,188 @@
       </c>
       <c r="K44" s="96"/>
     </row>
-    <row r="45" spans="1:11" ht="126" customHeight="1">
-      <c r="A45" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="109" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="98">
-        <v>45759</v>
-      </c>
-      <c r="J45" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K45" s="96"/>
-    </row>
-    <row r="46" spans="1:11" ht="122.25" customHeight="1">
+    <row r="45" spans="1:11" ht="12" customHeight="1">
+      <c r="A45" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="113"/>
+    </row>
+    <row r="46" spans="1:11" ht="123.75" customHeight="1">
       <c r="A46" s="91" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D46" s="109" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="E46" s="110"/>
       <c r="F46" s="110"/>
       <c r="G46" s="95"/>
       <c r="H46" s="94"/>
       <c r="I46" s="98">
-        <v>45759</v>
+        <v>45757</v>
       </c>
       <c r="J46" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K46" s="96"/>
     </row>
-    <row r="47" spans="1:11" ht="129.75" customHeight="1">
+    <row r="47" spans="1:11" ht="124.5" customHeight="1">
       <c r="A47" s="91" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B47" s="93" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D47" s="109" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E47" s="110"/>
       <c r="F47" s="110"/>
       <c r="G47" s="95"/>
       <c r="H47" s="94"/>
       <c r="I47" s="98">
-        <v>45759</v>
+        <v>45757</v>
       </c>
       <c r="J47" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K47" s="96"/>
     </row>
-    <row r="48" spans="1:11" ht="129.75" customHeight="1">
+    <row r="48" spans="1:11" ht="126" customHeight="1">
       <c r="A48" s="91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B48" s="93" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D48" s="109" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E48" s="110"/>
       <c r="F48" s="110"/>
       <c r="G48" s="95"/>
       <c r="H48" s="94"/>
       <c r="I48" s="98">
-        <v>45759</v>
-      </c>
-      <c r="J48" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" s="96" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="135.75" customHeight="1">
-      <c r="A49" s="91" t="s">
+        <v>45757</v>
+      </c>
+      <c r="J48" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="96"/>
+    </row>
+    <row r="49" spans="1:11" ht="12" customHeight="1">
+      <c r="A49" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
+    </row>
+    <row r="50" spans="1:11" ht="12" customHeight="1">
+      <c r="A50" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="113"/>
+    </row>
+    <row r="51" spans="1:11" ht="129" customHeight="1">
+      <c r="A51" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="109" t="s">
         <v>132</v>
-      </c>
-      <c r="B49" s="93" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="109" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="98">
-        <v>45758</v>
-      </c>
-      <c r="J49" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49" s="96"/>
-    </row>
-    <row r="50" spans="1:11" ht="129.75" customHeight="1">
-      <c r="A50" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="109" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="98">
-        <v>45758</v>
-      </c>
-      <c r="J50" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50" s="96"/>
-    </row>
-    <row r="51" spans="1:11" ht="133.5" customHeight="1">
-      <c r="A51" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>134</v>
       </c>
       <c r="E51" s="110"/>
       <c r="F51" s="110"/>
       <c r="G51" s="95"/>
       <c r="H51" s="94"/>
       <c r="I51" s="98">
-        <v>45758</v>
+        <v>45757</v>
       </c>
       <c r="J51" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K51" s="96"/>
     </row>
-    <row r="52" spans="1:11" ht="12" customHeight="1">
-      <c r="A52" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="108"/>
-    </row>
-    <row r="53" spans="1:11" ht="136.5" customHeight="1">
+    <row r="52" spans="1:11" ht="126" customHeight="1">
+      <c r="A52" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J52" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="96"/>
+    </row>
+    <row r="53" spans="1:11" ht="122.25" customHeight="1">
       <c r="A53" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="109" t="s">
         <v>132</v>
-      </c>
-      <c r="B53" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="109" t="s">
-        <v>152</v>
       </c>
       <c r="E53" s="110"/>
       <c r="F53" s="110"/>
@@ -7910,40 +8807,210 @@
       <c r="I53" s="98">
         <v>45759</v>
       </c>
-      <c r="J53" s="102" t="s">
+      <c r="J53" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="96"/>
+    </row>
+    <row r="54" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A54" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J54" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" s="96"/>
+    </row>
+    <row r="55" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A55" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J55" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="96" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="12" customHeight="1"/>
-    <row r="55" spans="1:11" ht="12" customHeight="1"/>
+      <c r="K55" s="96" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="135.75" customHeight="1">
+      <c r="A56" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="98">
+        <v>45758</v>
+      </c>
+      <c r="J56" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="96"/>
+    </row>
+    <row r="57" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A57" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="98">
+        <v>45758</v>
+      </c>
+      <c r="J57" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="96"/>
+    </row>
+    <row r="58" spans="1:11" ht="133.5" customHeight="1">
+      <c r="A58" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="98">
+        <v>45758</v>
+      </c>
+      <c r="J58" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="96"/>
+    </row>
+    <row r="59" spans="1:11" ht="12" customHeight="1">
+      <c r="A59" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="112"/>
+      <c r="K59" s="113"/>
+    </row>
+    <row r="60" spans="1:11" ht="136.5" customHeight="1">
+      <c r="A60" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J60" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" s="96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="12" customHeight="1"/>
+    <row r="62" spans="1:11" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D45:F45"/>
+  <mergeCells count="68">
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A45:K45"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
     <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A12:K12"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -7960,28 +9027,32 @@
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="D60:F60"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8095,7 +9166,7 @@
       </c>
       <c r="D8" s="72">
         <f>Samples!B6</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E8" s="71">
         <f>Samples!B7</f>
@@ -8107,7 +9178,7 @@
       </c>
       <c r="G8" s="72">
         <f>Samples!D7</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -8127,7 +9198,7 @@
       </c>
       <c r="D10" s="59">
         <f>SUM(D6:D9)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E10" s="59">
         <f>SUM(E6:E9)</f>
@@ -8139,7 +9210,7 @@
       </c>
       <c r="G10" s="60">
         <f>SUM(G6:G9)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -8160,7 +9231,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="23">
         <f>(D10+E10)*100/G10</f>
-        <v>96.551724137931032</v>
+        <v>100</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>23</v>
@@ -8176,7 +9247,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="23">
         <f>D10*100/G10</f>
-        <v>82.758620689655174</v>
+        <v>88.571428571428569</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>23</v>

--- a/TestCase_Nhom10.xlsx
+++ b/TestCase_Nhom10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\equipment-maintenance-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC7B8B-AF2C-4A41-9AB8-18E24D3C0689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3C40E-9E8A-4ABC-84DD-15687737B5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="219">
   <si>
     <t>TC1</t>
   </si>
@@ -212,9 +212,6 @@
     <t>TC4</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>1. Vào trang đăng nhập 
 2. Nhấn login</t>
   </si>
@@ -2057,6 +2054,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lưu thành công.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Kiểm tra chức năng </t>
     </r>
     <r>
@@ -2085,93 +2097,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">đầy đủ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thông tin có ngày bảo trì từ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 3 đến 6 tháng.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hiện thống báo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lưu thành công.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">lập lịch bảo trì </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">với </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">đầy đủ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">thông tin có nhân viên không </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lịch trùng.</t>
+      <t>gửi email cho nhân viên trước 24h ngày bảo trì.</t>
     </r>
   </si>
   <si>
@@ -2187,16 +2113,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Bàn ủi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> có trạng thái: </t>
+      <t xml:space="preserve">Máy tính </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">có trạng thái: </t>
     </r>
     <r>
       <rPr>
@@ -2255,7 +2181,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>13</t>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -2303,7 +2229,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>13/07/2025</t>
+      <t>13/04/2025</t>
     </r>
     <r>
       <rPr>
@@ -2376,6 +2302,33 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Hiện email gửi cho nhân viên </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>trước 24h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Kiểm tra chức năng lập lịch bảo trì KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Kiểm tra chức năng </t>
     </r>
     <r>
@@ -2404,1269 +2357,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">đầy đủ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">thông tin với thiết bị bảo trì lần 2 cách lần 1 từ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6 tháng trở lên.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Vào danh sách thiết bị.
-2. Chọn thiết bị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Máy giặt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> có trạng thái: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đang hoạt động.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Ấn vào nút </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bảo Trì.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13/07/2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-6. Chọn nhân viên: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lâm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ấn nút</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> lập lịch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Vào danh sách thiết bị.
-2. Chọn thiết bị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bàn ủi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">có trạng thái: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đang hoạt động.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Ấn vào nút </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bảo Trì.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12/01/2026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-6. Chọn nhân viên: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lâm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ấn nút</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> lập lịch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">lập lịch bảo trì </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">với </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>gửi email cho nhân viên trước 24h ngày bảo trì.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">lập lịch bảo trì </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">với </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">đầy đủ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">thông tin với thiết bị có trạng thái </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đang hoạt động.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Vào danh sách thiết bị.
-2. Chọn thiết bị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Máy tính </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">có trạng thái: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đang hoạt động.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Ấn vào nút </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bảo Trì.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13/04/2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-6. Chọn nhân viên: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lâm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ấn nút</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> lập lịch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hiện email gửi cho nhân viên </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>trước 24h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">lập lịch bảo trì </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">với </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thời gian bảo trì là 13h.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">lập lịch bảo trì </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">với </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thời gian bảo trì là 9h.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Vào danh sách thiết bị.
-2. Chọn thiết bị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bàn ủi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> có trạng thái: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đang hoạt động.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Ấn vào nút </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bảo Trì.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12/07/2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-6. Chọn nhân viên: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lâm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ấn nút</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> lập lịch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">lập lịch bảo trì </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">với </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>thời gian bảo trì là 17h.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Vào danh sách thiết bị.
-2. Chọn thiết bị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Máy giặt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> có trạng thái: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đang hoạt động.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Ấn vào nút </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bảo Trì.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13/07/2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-6. Chọn nhân viên: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lâm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ấn nút</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> lập lịch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Kiểm tra chức năng lập lịch bảo trì KHÔNG HỢP LỆ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kiểm tra chức năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">lập lịch bảo trì </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">với </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>bỏ trống</t>
     </r>
     <r>
@@ -3681,206 +2371,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Vào danh sách thiết bị.
-2. Chọn thiết bị </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Máy tính</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> có trạng thái: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>đang hoạt động.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Ấn vào nút </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bảo Trì.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13/07/2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.
-6. Bỏ chọn nhân viên.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ấn nút</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> lập lịch</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
@@ -4537,6 +3027,3483 @@
       </rPr>
       <t xml:space="preserve">
 5. Nhấn thêm thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chức năng cập nhật thiết bị với</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> thiết bị có trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đã thanh lý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Không được cập nhật thiết bị đã thanh lý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> và vô hiệu hóa nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cập nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị có trạng thái đã thanh lý:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Nồi cơm điện</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ô trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>không cho thấy trạng thái đang sửa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị có trạng thái hỏng hóc:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Máy lạnh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chọn ô trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ô trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>không cho thấy trạng thái đang hoạt động.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chức năng cập nhật thiết bị với</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đang hoạt động </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chuyển sang trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đang sửa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chức năng cập nhật thiết bị với</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hỏng hóc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chuyển sang trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đang hoạt động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chức năng cập nhật thiết bị với</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> tên thiết bị nhập toàn kí tự </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị có trạng thái đang hoạt động:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Chọn ô trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị có trạng thái đang hoạt động:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Xóa ô tên thiết bị và nhập kí tự </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Space.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nhấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cập nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vô hiệu hóa nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra chức năng cập nhật thiết bị với</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngày nhập thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Vào danh sách thiết bị.
+2. Click 2 lần vào thiết bị có trạng thái đang hoạt động:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Nhập ngày nhập thiết bị là: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10/4/2025.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nhấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cập nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đầy đủ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thông tin với thiết bị có trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đang hoạt động </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">và cách ngày nhập thiết bị là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 tháng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đầy đủ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thông tin thiết bị có trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có ngày bảo trì cách ngày nhập thiết bị là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6 tháng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiện thị sai thông báo và không lập lịch bảo trì</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đang hoạt động </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">và ngày nhập thiết bị là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>05/03/2025.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>05/06/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lập lịch bảo trì</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lần 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cách ngày bảo trì</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lần 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đúng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 tháng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thiết bị đã có lịch bảo trì rồi nhấn lập lịch lần 2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào lịch bảo trì.
+2. Chọn lịch bảo trì của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vô hiệu hóa nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đang hoạt động </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>và ngày nhập thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: 14/04/2025.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>14/04/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy tính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13/07/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+6. Bỏ chọn nhân viên.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ngày bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">trùng với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngày nhập thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày bảo trì phải trong khoảng 3 đến 6 tháng kể từ ngày nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">đầy đủ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thông tin có nhân viên có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lịch trùng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thống báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nhân viên đã có lịch trùng giờ tại thời điểm này.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó nhân viên </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đã có lịch bảo trì ngày </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>01/08/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lúc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Vào danh sách thiết bị.
+3. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>01/08/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+7. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> và ngày nhập thiết bị là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>05/03/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+5. Chọn ngày bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>05/09/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+7. Ấn nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào danh sách thiết bị.
+2. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> và ngày nhập thiết bị là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">14/04/2025 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>và có ngày bảo trì lần 1 là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 01/08/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. Ấn vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bảo Trì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Chọn thời gian bảo trì: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+5. Chọn ngày bảo trì: 01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/11/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+7. Ấn nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lập lịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ẩn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cho thiết bị đã bảo trì 2 lần</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">với </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thiết bị bảo trì</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lần 3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó đã có 2 lịch bảo trì cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Vào danh sách thiết bị.
+3. Chọn thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn ủi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> có trạng thái: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đang hoạt động.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chức năng CẬP NHẬT LỊCH BẢO TRÌ</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra chức năng cập nhật lịch bảo trì HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật lịch bảo trì trước </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 ngày.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó đã có lịch bảo trì cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bàn phím </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có ngày bảo trì là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 18/04/2025 lúc 9 giờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Click 2 lần vào lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn phím.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Thay đổi nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Giang.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cập nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cập nhật thành công.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật lịch bảo trì với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nhân viên không có lịch trùng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó đã có lịch bảo trì cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy giặt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có ngày bảo trì là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 01/08/2025 lúc 9 giờ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>của nhân viên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hậu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Click 2 lần vào lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Click chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Giang.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cập nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hiện thông báo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cập nhật thành công</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật lịch bảo trì với </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngày bảo trì nhỏ hơn hoặc bằng ngày nhập thiết bị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Không cho phép người dùng thay đổi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngày bảo trì.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó đã có lịch bảo trì cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bàn phím </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có ngày bảo trì là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 18/04/2025 lúc 9 giờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Click 2 lần vào lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn phím.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bỏ trống 1 ô thông tin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Không cho phép người dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bỏ trống 1 ô thông tin.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Không cho thay đổi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mã thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+3. Không cho thay đổi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tên thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+4. Luôn hiện </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>thời gian bảo trì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+5. Ẩn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngày bảo trì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. Luôn hiện </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 nhân viên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chọn nhân viên có lịch trùng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nhân viên đã có lịch trùng tại thời điểm này.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó đã có lịch bảo trì cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy giặt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có ngày bảo trì là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 01/08/2025 lúc 9 giờ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>của nhân viên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hậu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Click 2 lần vào lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Máy giặt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Click chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Vì nhân viên này đã có lịch bảo trì ngày </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>01/08/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lúc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9 giờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ở thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bàn ủi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Ấn nút</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cập nhật.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Kiểm tra chức năng cập nhật lịch bảo trì KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Không được cập nhật trong 2 ngày cuối.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó đã có lịch bảo trì cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bàn phím </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có ngày bảo trì là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 15/04/2025 lúc 9 giờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Click 2 lần vào lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn phím.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đúng ngày bảo trì.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lịch bảo trì này đã quá hạn.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiện sai thông báo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó đã có lịch bảo trì cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bàn phím </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có ngày bảo trì là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10/04/2025 lúc 9 giờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Click 2 lần vào lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn phím.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sau ngày bảo trì.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">cập nhật lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>trước ngày bảo trì 1 ngày.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Trước đó đã có lịch bảo trì cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bàn phím </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có ngày bảo trì là</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 16/04/2025 lúc 9 giờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. Click 2 lần vào lịch bảo trì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bàn phím.</t>
     </r>
   </si>
 </sst>
@@ -5558,6 +7525,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5585,6 +7555,51 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5618,12 +7633,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5644,48 +7653,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6285,13 +8252,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>56023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2877741</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>1572330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6455,59 +8422,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2823441</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1543050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E8FEC8-1C39-9428-9E0F-2B8D96CB17DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9867900" y="34632900"/>
-          <a:ext cx="2594841" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>312839</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2724150</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1458695</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1430120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6523,7 +8446,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6544,14 +8467,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>58106</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2905125</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>1617275</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1559169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6567,181 +8490,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9915525" y="37824731"/>
+          <a:off x="9915525" y="60274200"/>
           <a:ext cx="2628900" cy="1559169"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2594841" cy="1524000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C76E0E-21DA-4989-B167-ED0F935889E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9886950" y="34651950"/>
-          <a:ext cx="2594841" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2594841" cy="1524000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3B1B93-F039-452D-B295-CFF85349D39C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9820275" y="42776775"/>
-          <a:ext cx="2594841" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>176592</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2838450</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1607760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BA0C89-E080-C9C9-79B8-B31B2E44C350}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9815892" y="44462700"/>
-          <a:ext cx="2661858" cy="1569660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>179451</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2943225</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>1674743</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A01EDF-DA97-574C-15C9-3CB831C33887}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9818751" y="46129575"/>
-          <a:ext cx="2763774" cy="1617593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6754,13 +8511,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>204597</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2858688</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>1610425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6777,14 +8534,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9843897" y="47967900"/>
+          <a:off x="9843897" y="62122050"/>
           <a:ext cx="2654091" cy="1562800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6860,7 +8617,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6904,7 +8661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6948,7 +8705,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6992,7 +8749,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7036,7 +8793,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7080,7 +8837,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7089,6 +8846,886 @@
         <a:xfrm>
           <a:off x="9915524" y="32537400"/>
           <a:ext cx="2571751" cy="1505205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2863512</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1533525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFA09B1-C387-CC11-765B-F656A7A995FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="44034075"/>
+          <a:ext cx="2558712" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2840624</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1552575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547CFDB8-6EE3-F238-5603-5E2F3CE8DDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915525" y="47234475"/>
+          <a:ext cx="2564399" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2752725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1542143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54AE10F-56D9-CD18-C229-E969C574B468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="48844200"/>
+          <a:ext cx="2486025" cy="1475468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2790825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1551972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA711DD6-1D91-90C3-4012-54030BCD24E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="50425350"/>
+          <a:ext cx="2562225" cy="1504347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2867026</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1566531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B7E690-C356-914C-1501-ADD12626AC78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="52016026"/>
+          <a:ext cx="2628901" cy="1528430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2790825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1592510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CE0DCA-D79F-1614-F9A9-CEDD0579D23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="53949600"/>
+          <a:ext cx="2600325" cy="1525835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2841588</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1552575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594D53E1-F743-2A47-596E-1494F89980CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="55540275"/>
+          <a:ext cx="2641563" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1551706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C1FB8A-F87F-3C20-8272-35B5DAFAE352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="57150001"/>
+          <a:ext cx="2600325" cy="1523130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1614334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BEA0CF-2AA2-90D4-0A2B-31A9EF0B43FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="63846075"/>
+          <a:ext cx="2714625" cy="1576234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2867025</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1641854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F49AFE2-78A1-1DBB-E9DE-BDC2E21D399A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="65522475"/>
+          <a:ext cx="2695575" cy="1575179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2807535</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FEC92D-F88F-6D51-1003-9C57AA928144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="65703450"/>
+          <a:ext cx="2578935" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2884755</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1685925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59AE4BC-AAD4-696A-EAD2-C7AFF7EA8AF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="67408425"/>
+          <a:ext cx="2694255" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1428856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE873A66-197D-0F51-54B0-921935615A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="70780275"/>
+          <a:ext cx="2343150" cy="1390756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2702194</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>1428751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D209E5-C6D7-D4CC-FBE5-82B557B05B42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="72266176"/>
+          <a:ext cx="2340244" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2641311</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC68371-FCFE-3D2B-66ED-7E2FD9BC3215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963150" y="73951570"/>
+          <a:ext cx="2317461" cy="1362605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1432428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229361FA-5EF5-CD60-9C55-B7D43F1EC827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9991725" y="75447526"/>
+          <a:ext cx="2343150" cy="1365752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2723629</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1514475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48D19DC-3B15-EB6B-0487-F3845D692BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896475" y="76942950"/>
+          <a:ext cx="2466454" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>1490210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37F3F2C-7CF1-96CC-7C50-A2F4E871BC90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934575" y="78562200"/>
+          <a:ext cx="2371725" cy="1404485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2752725</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1561603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6569643E-014A-F9F2-1655-2EFEB75950F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="80114775"/>
+          <a:ext cx="2543175" cy="1504453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2733676</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1532249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC83570F-5A8F-3E8D-53F4-E170D83E413E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="81676875"/>
+          <a:ext cx="2514601" cy="1484624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7470,11 +10107,11 @@
       <c r="B6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
@@ -7483,11 +10120,11 @@
       <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="C7" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
@@ -7549,10 +10186,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="82"/>
     </row>
@@ -7674,10 +10311,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -7697,9 +10334,9 @@
       <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -7711,9 +10348,9 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -7727,54 +10364,54 @@
       <c r="A3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" s="77" customFormat="1" ht="12.75">
       <c r="A5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
       <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
@@ -7782,23 +10419,23 @@
         <v>39</v>
       </c>
       <c r="B6" s="83">
-        <f>COUNTIF(J13:J113,"Pass")</f>
-        <v>31</v>
+        <f>COUNTIF(J13:J114,"Pass")</f>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(J10:J746,"Pending")</f>
+        <f>COUNTIF(J10:J747,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -7806,30 +10443,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="84">
-        <f>COUNTIF(J13:J73,"Failed")</f>
-        <v>4</v>
+        <f>COUNTIF(J13:J112,"Fail")</f>
+        <v>10</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="64">
-        <f>COUNTA(A13:A107) -13</f>
-        <v>35</v>
+        <f>COUNTA(A13:A108) -16</f>
+        <v>48</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -7840,91 +10477,91 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="79" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="137" t="s">
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="127" t="s">
+      <c r="K9" s="123" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="78"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="128"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="80" customFormat="1" ht="15">
-      <c r="A11" s="132"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
     </row>
     <row r="12" spans="1:12" s="99" customFormat="1" ht="15.75">
-      <c r="A12" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
+      <c r="A12" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="12.75">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="130.9" customHeight="1" outlineLevel="1">
       <c r="A14" s="91" t="s">
@@ -7934,13 +10571,13 @@
         <v>46</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="138" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
+        <v>54</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="95"/>
       <c r="H14" s="94"/>
       <c r="I14" s="100">
@@ -7952,45 +10589,45 @@
       <c r="K14" s="96"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A15" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="113"/>
+      <c r="A15" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
     </row>
     <row r="16" spans="1:12" ht="127.9" customHeight="1">
       <c r="A16" s="91" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="D16" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="95"/>
       <c r="H16" s="94"/>
       <c r="I16" s="98">
         <v>45741</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="K16" s="96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="127.9" customHeight="1">
@@ -7998,16 +10635,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="D17" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="95"/>
       <c r="H17" s="94"/>
       <c r="I17" s="98">
@@ -8023,16 +10660,16 @@
         <v>49</v>
       </c>
       <c r="B18" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="95"/>
       <c r="H18" s="94"/>
       <c r="I18" s="98">
@@ -8045,19 +10682,19 @@
     </row>
     <row r="19" spans="1:11" ht="130.9" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="D19" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="136" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="95"/>
       <c r="H19" s="94"/>
       <c r="I19" s="98">
@@ -8070,19 +10707,19 @@
     </row>
     <row r="20" spans="1:11" ht="138" customHeight="1">
       <c r="A20" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="D20" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="95"/>
       <c r="H20" s="94"/>
       <c r="I20" s="98">
@@ -8094,35 +10731,35 @@
       <c r="K20" s="96"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A21" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="113"/>
+      <c r="A21" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="1:11" ht="123.75" customHeight="1">
       <c r="A22" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C22" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="95"/>
       <c r="H22" s="94"/>
       <c r="I22" s="98">
@@ -8135,19 +10772,19 @@
     </row>
     <row r="23" spans="1:11" ht="123.75" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="D23" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="95"/>
       <c r="H23" s="94"/>
       <c r="I23" s="98">
@@ -8159,20 +10796,20 @@
       <c r="K23" s="96"/>
     </row>
     <row r="24" spans="1:11" ht="123.75" customHeight="1">
-      <c r="A24" s="149" t="s">
-        <v>88</v>
+      <c r="A24" s="107" t="s">
+        <v>87</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
+        <v>142</v>
+      </c>
+      <c r="D24" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="95"/>
       <c r="H24" s="94"/>
       <c r="I24" s="98">
@@ -8184,35 +10821,35 @@
       <c r="K24" s="96"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1">
-      <c r="A25" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="113"/>
+      <c r="A25" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
     </row>
     <row r="26" spans="1:11" ht="123.75" customHeight="1">
       <c r="A26" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
+      <c r="D26" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="95"/>
       <c r="H26" s="94"/>
       <c r="I26" s="98">
@@ -8224,50 +10861,50 @@
       <c r="K26" s="96"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
-      <c r="A27" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115"/>
+      <c r="A27" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
     </row>
     <row r="28" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A28" s="111" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="113"/>
+      <c r="A28" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
     </row>
     <row r="29" spans="1:11" ht="126.75" customHeight="1">
       <c r="A29" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
+      <c r="D29" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="95"/>
       <c r="H29" s="94"/>
       <c r="I29" s="98">
@@ -8280,19 +10917,19 @@
     </row>
     <row r="30" spans="1:11" ht="123" customHeight="1">
       <c r="A30" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="95"/>
       <c r="H30" s="94"/>
       <c r="I30" s="98">
@@ -8304,35 +10941,35 @@
       <c r="K30" s="96"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A31" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="113"/>
+      <c r="A31" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="1:11" ht="127.5" customHeight="1">
       <c r="A32" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="95"/>
       <c r="H32" s="94"/>
       <c r="I32" s="98">
@@ -8345,19 +10982,19 @@
     </row>
     <row r="33" spans="1:11" ht="127.5" customHeight="1">
       <c r="A33" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="93" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C33" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="109" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
+        <v>145</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="95"/>
       <c r="H33" s="94"/>
       <c r="I33" s="98">
@@ -8370,19 +11007,19 @@
     </row>
     <row r="34" spans="1:11" ht="127.5" customHeight="1">
       <c r="A34" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="93" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="109" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
+        <v>148</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="95"/>
       <c r="H34" s="94"/>
       <c r="I34" s="98">
@@ -8395,19 +11032,19 @@
     </row>
     <row r="35" spans="1:11" ht="127.5" customHeight="1">
       <c r="A35" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="109" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
+        <v>150</v>
+      </c>
+      <c r="D35" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
       <c r="G35" s="95"/>
       <c r="H35" s="94"/>
       <c r="I35" s="98">
@@ -8420,19 +11057,19 @@
     </row>
     <row r="36" spans="1:11" ht="127.5" customHeight="1">
       <c r="A36" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C36" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
+        <v>153</v>
+      </c>
+      <c r="D36" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
       <c r="G36" s="95"/>
       <c r="H36" s="94"/>
       <c r="I36" s="98">
@@ -8445,19 +11082,19 @@
     </row>
     <row r="37" spans="1:11" ht="127.5" customHeight="1">
       <c r="A37" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="93" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="109" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
+        <v>155</v>
+      </c>
+      <c r="D37" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="95"/>
       <c r="H37" s="94"/>
       <c r="I37" s="98">
@@ -8470,19 +11107,19 @@
     </row>
     <row r="38" spans="1:11" ht="127.5" customHeight="1">
       <c r="A38" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
+        <v>158</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="95"/>
       <c r="H38" s="94"/>
       <c r="I38" s="98">
@@ -8494,77 +11131,77 @@
       <c r="K38" s="96"/>
     </row>
     <row r="39" spans="1:11" ht="12" customHeight="1">
-      <c r="A39" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="115"/>
+      <c r="A39" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="116"/>
     </row>
     <row r="40" spans="1:11" ht="12" customHeight="1">
-      <c r="A40" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="113"/>
+      <c r="A40" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="114"/>
     </row>
     <row r="41" spans="1:11" ht="123.75" customHeight="1">
       <c r="A41" s="91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="95"/>
       <c r="H41" s="94"/>
       <c r="I41" s="98">
         <v>45757</v>
       </c>
       <c r="J41" s="102" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="K41" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="123.75" customHeight="1">
       <c r="A42" s="91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
+      <c r="D42" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="95"/>
       <c r="H42" s="105"/>
       <c r="I42" s="98">
@@ -8577,76 +11214,76 @@
     </row>
     <row r="43" spans="1:11" ht="123" customHeight="1">
       <c r="A43" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="93"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="136"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="120"/>
       <c r="G43" s="94"/>
       <c r="H43" s="95"/>
       <c r="I43" s="104">
         <v>45757</v>
       </c>
-      <c r="J43" s="101" t="s">
-        <v>39</v>
+      <c r="J43" s="102" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="96"/>
     </row>
     <row r="44" spans="1:11" ht="122.25" customHeight="1">
       <c r="A44" s="91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="93"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="136"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
       <c r="G44" s="94"/>
       <c r="H44" s="106"/>
       <c r="I44" s="104">
         <v>45757</v>
       </c>
-      <c r="J44" s="101" t="s">
-        <v>39</v>
+      <c r="J44" s="102" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="96"/>
     </row>
     <row r="45" spans="1:11" ht="12" customHeight="1">
-      <c r="A45" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="113"/>
+      <c r="A45" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="114"/>
     </row>
     <row r="46" spans="1:11" ht="123.75" customHeight="1">
       <c r="A46" s="91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
+        <v>107</v>
+      </c>
+      <c r="D46" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
       <c r="G46" s="95"/>
       <c r="H46" s="94"/>
       <c r="I46" s="98">
@@ -8659,19 +11296,19 @@
     </row>
     <row r="47" spans="1:11" ht="124.5" customHeight="1">
       <c r="A47" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B47" s="93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
       <c r="G47" s="95"/>
       <c r="H47" s="94"/>
       <c r="I47" s="98">
@@ -8682,80 +11319,100 @@
       </c>
       <c r="K47" s="96"/>
     </row>
-    <row r="48" spans="1:11" ht="126" customHeight="1">
+    <row r="48" spans="1:11" ht="124.5" customHeight="1">
       <c r="A48" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48" s="93" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
+        <v>161</v>
+      </c>
+      <c r="D48" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
       <c r="G48" s="95"/>
       <c r="H48" s="94"/>
       <c r="I48" s="98">
-        <v>45757</v>
+        <v>45761</v>
       </c>
       <c r="J48" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K48" s="96"/>
     </row>
-    <row r="49" spans="1:11" ht="12" customHeight="1">
-      <c r="A49" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="115"/>
+    <row r="49" spans="1:11" ht="126" customHeight="1">
+      <c r="A49" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="98">
+        <v>45757</v>
+      </c>
+      <c r="J49" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="96"/>
     </row>
-    <row r="50" spans="1:11" ht="12" customHeight="1">
-      <c r="A50" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="113"/>
+    <row r="50" spans="1:11" ht="126" customHeight="1">
+      <c r="A50" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="98">
+        <v>45761</v>
+      </c>
+      <c r="J50" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="96"/>
     </row>
-    <row r="51" spans="1:11" ht="129" customHeight="1">
+    <row r="51" spans="1:11" ht="126" customHeight="1">
       <c r="A51" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="93" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
+        <v>163</v>
+      </c>
+      <c r="D51" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
       <c r="G51" s="95"/>
       <c r="H51" s="94"/>
       <c r="I51" s="98">
-        <v>45757</v>
+        <v>45761</v>
       </c>
       <c r="J51" s="101" t="s">
         <v>39</v>
@@ -8764,253 +11421,602 @@
     </row>
     <row r="52" spans="1:11" ht="126" customHeight="1">
       <c r="A52" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" s="93" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C52" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
+        <v>169</v>
+      </c>
+      <c r="D52" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="95"/>
       <c r="H52" s="94"/>
       <c r="I52" s="98">
-        <v>45759</v>
+        <v>45761</v>
       </c>
       <c r="J52" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K52" s="96"/>
     </row>
-    <row r="53" spans="1:11" ht="122.25" customHeight="1">
+    <row r="53" spans="1:11" ht="126" customHeight="1">
       <c r="A53" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
+        <v>172</v>
+      </c>
+      <c r="D53" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="95"/>
       <c r="H53" s="94"/>
       <c r="I53" s="98">
-        <v>45759</v>
+        <v>45761</v>
       </c>
       <c r="J53" s="101" t="s">
         <v>39</v>
       </c>
       <c r="K53" s="96"/>
     </row>
-    <row r="54" spans="1:11" ht="129.75" customHeight="1">
-      <c r="A54" s="91" t="s">
+    <row r="54" spans="1:11" ht="12" customHeight="1">
+      <c r="A54" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="116"/>
+    </row>
+    <row r="55" spans="1:11" ht="12" customHeight="1">
+      <c r="A55" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="114"/>
+    </row>
+    <row r="56" spans="1:11" ht="129" customHeight="1">
+      <c r="A56" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="98">
-        <v>45759</v>
-      </c>
-      <c r="J54" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54" s="96"/>
-    </row>
-    <row r="55" spans="1:11" ht="129.75" customHeight="1">
-      <c r="A55" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="98">
-        <v>45759</v>
-      </c>
-      <c r="J55" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="K55" s="96" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="135.75" customHeight="1">
-      <c r="A56" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="95"/>
       <c r="H56" s="94"/>
       <c r="I56" s="98">
-        <v>45758</v>
-      </c>
-      <c r="J56" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K56" s="96"/>
+        <v>45761</v>
+      </c>
+      <c r="J56" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="96" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="57" spans="1:11" ht="129.75" customHeight="1">
+    <row r="57" spans="1:11" ht="126" customHeight="1">
       <c r="A57" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="93" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="95"/>
       <c r="H57" s="94"/>
       <c r="I57" s="98">
-        <v>45758</v>
-      </c>
-      <c r="J57" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" s="96"/>
+        <v>45761</v>
+      </c>
+      <c r="J57" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="96" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="58" spans="1:11" ht="133.5" customHeight="1">
+    <row r="58" spans="1:11" ht="126" customHeight="1">
       <c r="A58" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="95"/>
       <c r="H58" s="94"/>
       <c r="I58" s="98">
-        <v>45758</v>
-      </c>
-      <c r="J58" s="101" t="s">
+        <v>45761</v>
+      </c>
+      <c r="J58" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="96" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A59" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J59" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="12" customHeight="1">
+      <c r="A60" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="113"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="114"/>
+    </row>
+    <row r="61" spans="1:11" ht="136.5" customHeight="1">
+      <c r="A61" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="98">
+        <v>45759</v>
+      </c>
+      <c r="J61" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" s="96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="129.75" customHeight="1">
+      <c r="A62" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="98">
+        <v>45761</v>
+      </c>
+      <c r="J62" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K58" s="96"/>
+      <c r="K62" s="96"/>
     </row>
-    <row r="59" spans="1:11" ht="12" customHeight="1">
-      <c r="A59" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="113"/>
+    <row r="63" spans="1:11" ht="135" customHeight="1">
+      <c r="A63" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="94"/>
+      <c r="I63" s="98">
+        <v>45761</v>
+      </c>
+      <c r="J63" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" s="96"/>
     </row>
-    <row r="60" spans="1:11" ht="136.5" customHeight="1">
-      <c r="A60" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="98">
-        <v>45759</v>
-      </c>
-      <c r="J60" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="K60" s="96" t="s">
-        <v>151</v>
-      </c>
+    <row r="64" spans="1:11" ht="132.75" customHeight="1">
+      <c r="A64" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="98">
+        <v>45761</v>
+      </c>
+      <c r="J64" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="96"/>
     </row>
-    <row r="61" spans="1:11" ht="12" customHeight="1"/>
-    <row r="62" spans="1:11" ht="12" customHeight="1"/>
+    <row r="65" spans="1:11" ht="141.75" customHeight="1">
+      <c r="A65" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="94"/>
+      <c r="I65" s="98">
+        <v>45761</v>
+      </c>
+      <c r="J65" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="96"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75">
+      <c r="A73" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="115"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="115"/>
+      <c r="I73" s="115"/>
+      <c r="J73" s="115"/>
+      <c r="K73" s="116"/>
+    </row>
+    <row r="74" spans="1:11" ht="13.5">
+      <c r="A74" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="113"/>
+      <c r="C74" s="113"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="114"/>
+    </row>
+    <row r="75" spans="1:11" ht="115.5" customHeight="1">
+      <c r="A75" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="98">
+        <v>45762</v>
+      </c>
+      <c r="J75" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="96"/>
+    </row>
+    <row r="76" spans="1:11" ht="117" customHeight="1">
+      <c r="A76" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="98">
+        <v>45762</v>
+      </c>
+      <c r="J76" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="96"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A77" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="113"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="113"/>
+      <c r="K77" s="114"/>
+    </row>
+    <row r="78" spans="1:11" ht="116.25" customHeight="1">
+      <c r="A78" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="111"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="98">
+        <v>45762</v>
+      </c>
+      <c r="J78" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="96"/>
+    </row>
+    <row r="79" spans="1:11" ht="118.5" customHeight="1">
+      <c r="A79" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" s="111"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="98">
+        <v>45762</v>
+      </c>
+      <c r="J79" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="96"/>
+    </row>
+    <row r="80" spans="1:11" ht="125.25" customHeight="1">
+      <c r="A80" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="111"/>
+      <c r="F80" s="111"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="98">
+        <v>45762</v>
+      </c>
+      <c r="J80" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" s="96"/>
+    </row>
+    <row r="81" spans="1:11" ht="124.5" customHeight="1">
+      <c r="A81" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="111"/>
+      <c r="F81" s="111"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="98">
+        <v>45762</v>
+      </c>
+      <c r="J81" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="96"/>
+    </row>
+    <row r="82" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A82" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="98">
+        <v>45762</v>
+      </c>
+      <c r="J82" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="K82" s="96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="124.5" customHeight="1">
+      <c r="A83" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" s="111"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="95"/>
+      <c r="H83" s="94"/>
+      <c r="I83" s="98">
+        <v>45762</v>
+      </c>
+      <c r="J83" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="96"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A12:K12"/>
+  <mergeCells count="84">
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -9027,6 +12033,21 @@
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="A39:K39"/>
     <mergeCell ref="D20:F20"/>
@@ -9038,21 +12059,29 @@
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9166,11 +12195,11 @@
       </c>
       <c r="D8" s="72">
         <f>Samples!B6</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" s="71">
         <f>Samples!B7</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" s="71">
         <f>Samples!D6</f>
@@ -9178,7 +12207,7 @@
       </c>
       <c r="G8" s="72">
         <f>Samples!D7</f>
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -9198,11 +12227,11 @@
       </c>
       <c r="D10" s="59">
         <f>SUM(D6:D9)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10" s="59">
         <f>SUM(E6:E9)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F10" s="59">
         <f>SUM(F6:F9)</f>
@@ -9210,7 +12239,7 @@
       </c>
       <c r="G10" s="60">
         <f>SUM(G6:G9)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -9247,7 +12276,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="23">
         <f>D10*100/G10</f>
-        <v>88.571428571428569</v>
+        <v>79.166666666666671</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>23</v>

--- a/TestCase_Nhom10.xlsx
+++ b/TestCase_Nhom10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\equipment-maintenance-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3C40E-9E8A-4ABC-84DD-15687737B5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC2108-8CDB-4678-865A-BB5FCF78DAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="240">
   <si>
     <t>TC1</t>
   </si>
@@ -6505,6 +6505,1076 @@
       </rPr>
       <t>Bàn phím.</t>
     </r>
+  </si>
+  <si>
+    <t>Chức năng LẬP LỊCH SỬA CHỮA</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra chức năng lập lịch sửa chữa HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch sửa chữa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ngày hiện tại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lập lịch sửa chữa thành công.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang danh sách thiết bị.
+2. Click vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sửa chữa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> của thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy lạnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hỏng hóc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Chọn thời gian: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">12.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Chọn ngày sửa:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 16/04/2025.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Chọn nhân viên:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lâm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Nhấn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch sửa chữa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chọn ngày sửa cách đúng 3 ngày so với ngày hiện tại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang danh sách thiết bị.
+2. Click vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sửa chữa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> của thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy lạnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hỏng hóc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Chọn thời gian: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">12.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Chọn ngày sửa:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 19/04/2025.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Chọn nhân viên:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lâm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Nhấn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Kiểm tra chức năng lập lịch sửa chữa KHÔNG HỢP LỆ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch sửa chữa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bỏ trống 1 ô thông tin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vui lòng điền đầy đủ thông tin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang danh sách thiết bị.
+2. Click vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sửa chữa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> của thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy lạnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hỏng hóc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Chọn thời gian: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">9.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Chọn ngày sửa:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 16/04/2025.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Bỏ chọn nhân viên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Nhấn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch sửa chữa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chọn ngày sửa chữa lớn hơn 3 ngày so với ngày hiện tại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang danh sách thiết bị.
+2. Click vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sửa chữa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> của thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy lạnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hỏng hóc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Chọn thời gian: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">12.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Chọn ngày sửa:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 20/04/2025.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Nhấn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch sửa chữa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chọn nhân viên có lịch sửa chữa bị trùng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang lịch sửa chữa, ta thấy có lịch sửa cho thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Quạt điện vào ngày 19/04/2025 lúc 12 giờ, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>quay về trang danh sách thiết bị.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sửa chữa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> của thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy lạnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hỏng hóc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Chọn thời gian: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">12.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Chọn ngày sửa:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 19/04/2025.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Nhấn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lỗi! Nhân viên làm trùng giờ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiện thông báo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày sửa phải nằm trong 3 ngày kể từ ngày hiện tại.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Vào trang danh sách thiết bị.
+2. Click vào nút </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sửa chữa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> của thiết bị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Máy lạnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>có trạng thái</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hỏng hóc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Chọn thời gian: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">9.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4. Chọn ngày sửa:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 14/04/2025.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. Chọn nhân viên: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lâm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5. Nhấn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">lập lịch sửa chữa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chọn ngày sửa nhỏ hơn ngày hiện tại.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chức năng THANH TOÁN</t>
+  </si>
+  <si>
+    <t>1. Kiểm tra chức năng thanh toán HỢP LỆ</t>
   </si>
 </sst>
 </file>
@@ -6701,7 +7771,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6747,6 +7817,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7253,7 +8329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7549,57 +8625,6 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7633,6 +8658,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7653,6 +8684,78 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9734,6 +10837,309 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>1485200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A436E7-E8D8-9D6B-476F-757AF3B13679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963150" y="83639024"/>
+          <a:ext cx="2457450" cy="1428051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1513805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4702E01E-A5AA-36A6-694F-42D6BB0F0202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="85229700"/>
+          <a:ext cx="2486025" cy="1456655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2768461</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>1476375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695F627-FD60-A743-6634-AFC77062E716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="88506300"/>
+          <a:ext cx="2463661" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2463661" cy="1438275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEB8565-30EE-4482-9FE0-12730ACD9FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="88506300"/>
+          <a:ext cx="2463661" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1487068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0613C8-0C2E-DFC6-E1AB-6C55A9A4F0CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925050" y="90087451"/>
+          <a:ext cx="2457450" cy="1439442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2769964</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1504950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BE9E70-44F2-DFA3-7DD6-E83556B0555D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9991725" y="91687650"/>
+          <a:ext cx="2417539" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>1473489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C413BB6F-38D5-3F10-BFBB-2E18D6587933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963150" y="93259275"/>
+          <a:ext cx="2390775" cy="1387764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10311,10 +11717,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:F83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -10334,9 +11740,9 @@
       <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -10348,9 +11754,9 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -10364,54 +11770,54 @@
       <c r="A3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" s="77" customFormat="1" ht="12.75">
       <c r="A5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
@@ -10419,23 +11825,23 @@
         <v>39</v>
       </c>
       <c r="B6" s="83">
-        <f>COUNTIF(J13:J114,"Pass")</f>
-        <v>38</v>
+        <f>COUNTIF(J13:J113,"Pass")</f>
+        <v>45</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(J10:J747,"Pending")</f>
+        <f>COUNTIF(J10:J746,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -10443,30 +11849,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="84">
-        <f>COUNTIF(J13:J112,"Fail")</f>
+        <f>COUNTIF(J13:J111,"Fail")</f>
         <v>10</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="64">
-        <f>COUNTA(A13:A108) -16</f>
-        <v>48</v>
+        <f>COUNTA(A13:A107) -21</f>
+        <v>55</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -10477,76 +11883,76 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="79" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="121" t="s">
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="123" t="s">
+      <c r="J9" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="123" t="s">
+      <c r="K9" s="126" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="78"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="80" customFormat="1" ht="15">
-      <c r="A11" s="146"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="132"/>
     </row>
     <row r="12" spans="1:12" s="99" customFormat="1" ht="15.75">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="146"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="12.75">
       <c r="A13" s="112" t="s">
@@ -10573,11 +11979,11 @@
       <c r="C14" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="95"/>
       <c r="H14" s="94"/>
       <c r="I14" s="100">
@@ -10640,7 +12046,7 @@
       <c r="C17" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="135" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="111"/>
@@ -10690,7 +12096,7 @@
       <c r="C19" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="135" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="111"/>
@@ -10861,19 +12267,19 @@
       <c r="K26" s="96"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
     </row>
     <row r="28" spans="1:11" ht="17.25" customHeight="1">
       <c r="A28" s="112" t="s">
@@ -11131,19 +12537,19 @@
       <c r="K38" s="96"/>
     </row>
     <row r="39" spans="1:11" ht="12" customHeight="1">
-      <c r="A39" s="115" t="s">
+      <c r="A39" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="116"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="146"/>
     </row>
     <row r="40" spans="1:11" ht="12" customHeight="1">
       <c r="A40" s="112" t="s">
@@ -11220,9 +12626,9 @@
         <v>113</v>
       </c>
       <c r="C43" s="93"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="120"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="135"/>
       <c r="G43" s="94"/>
       <c r="H43" s="95"/>
       <c r="I43" s="104">
@@ -11241,9 +12647,9 @@
         <v>97</v>
       </c>
       <c r="C44" s="93"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="120"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="135"/>
       <c r="G44" s="94"/>
       <c r="H44" s="106"/>
       <c r="I44" s="104">
@@ -11264,7 +12670,7 @@
       <c r="E45" s="113"/>
       <c r="F45" s="113"/>
       <c r="G45" s="113"/>
-      <c r="H45" s="117"/>
+      <c r="H45" s="149"/>
       <c r="I45" s="113"/>
       <c r="J45" s="113"/>
       <c r="K45" s="114"/>
@@ -11470,19 +12876,19 @@
       <c r="K53" s="96"/>
     </row>
     <row r="54" spans="1:11" ht="12" customHeight="1">
-      <c r="A54" s="115" t="s">
+      <c r="A54" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="116"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="146"/>
     </row>
     <row r="55" spans="1:11" ht="12" customHeight="1">
       <c r="A55" s="112" t="s">
@@ -11750,19 +13156,19 @@
       <c r="K65" s="96"/>
     </row>
     <row r="73" spans="1:11" ht="15.75">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="145" t="s">
         <v>193</v>
       </c>
-      <c r="B73" s="115"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="115"/>
-      <c r="I73" s="115"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="116"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="145"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="145"/>
+      <c r="G73" s="145"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="145"/>
+      <c r="J73" s="145"/>
+      <c r="K73" s="146"/>
     </row>
     <row r="74" spans="1:11" ht="13.5">
       <c r="A74" s="112" t="s">
@@ -11870,29 +13276,29 @@
       <c r="K78" s="96"/>
     </row>
     <row r="79" spans="1:11" ht="118.5" customHeight="1">
-      <c r="A79" s="91" t="s">
+      <c r="A79" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="93" t="s">
+      <c r="B79" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="C79" s="93" t="s">
+      <c r="C79" s="151" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="110" t="s">
+      <c r="D79" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="111"/>
-      <c r="F79" s="111"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="98">
+      <c r="E79" s="153"/>
+      <c r="F79" s="153"/>
+      <c r="G79" s="154"/>
+      <c r="H79" s="155"/>
+      <c r="I79" s="156">
         <v>45762</v>
       </c>
-      <c r="J79" s="101" t="s">
+      <c r="J79" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K79" s="96"/>
+      <c r="K79" s="158"/>
     </row>
     <row r="80" spans="1:11" ht="125.25" customHeight="1">
       <c r="A80" s="91" t="s">
@@ -11996,27 +13402,319 @@
       </c>
       <c r="K83" s="96"/>
     </row>
+    <row r="84" spans="1:11" ht="15.75">
+      <c r="A84" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="145"/>
+      <c r="G84" s="145"/>
+      <c r="H84" s="145"/>
+      <c r="I84" s="145"/>
+      <c r="J84" s="145"/>
+      <c r="K84" s="146"/>
+    </row>
+    <row r="85" spans="1:11" ht="13.5">
+      <c r="A85" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="113"/>
+      <c r="C85" s="113"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="113"/>
+      <c r="F85" s="113"/>
+      <c r="G85" s="113"/>
+      <c r="H85" s="113"/>
+      <c r="I85" s="113"/>
+      <c r="J85" s="113"/>
+      <c r="K85" s="114"/>
+    </row>
+    <row r="86" spans="1:11" ht="125.25" customHeight="1">
+      <c r="A86" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="111"/>
+      <c r="F86" s="111"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="98">
+        <v>45763</v>
+      </c>
+      <c r="J86" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K86" s="96"/>
+    </row>
+    <row r="87" spans="1:11" ht="121.5" customHeight="1">
+      <c r="A87" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="111"/>
+      <c r="F87" s="111"/>
+      <c r="G87" s="95"/>
+      <c r="H87" s="94"/>
+      <c r="I87" s="98">
+        <v>45763</v>
+      </c>
+      <c r="J87" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" s="96"/>
+    </row>
+    <row r="88" spans="1:11" ht="13.5">
+      <c r="A88" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="113"/>
+      <c r="C88" s="113"/>
+      <c r="D88" s="113"/>
+      <c r="E88" s="113"/>
+      <c r="F88" s="113"/>
+      <c r="G88" s="113"/>
+      <c r="H88" s="113"/>
+      <c r="I88" s="113"/>
+      <c r="J88" s="113"/>
+      <c r="K88" s="114"/>
+    </row>
+    <row r="89" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A89" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="110" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="111"/>
+      <c r="F89" s="111"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="94"/>
+      <c r="I89" s="98">
+        <v>45763</v>
+      </c>
+      <c r="J89" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" s="96"/>
+    </row>
+    <row r="90" spans="1:11" ht="123" customHeight="1">
+      <c r="A90" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D90" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="94"/>
+      <c r="I90" s="98">
+        <v>45763</v>
+      </c>
+      <c r="J90" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="96"/>
+    </row>
+    <row r="91" spans="1:11" ht="123.75" customHeight="1">
+      <c r="A91" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" s="110" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
+      <c r="G91" s="95"/>
+      <c r="H91" s="94"/>
+      <c r="I91" s="98">
+        <v>45763</v>
+      </c>
+      <c r="J91" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K91" s="96"/>
+    </row>
+    <row r="92" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A92" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="E92" s="111"/>
+      <c r="F92" s="111"/>
+      <c r="G92" s="95"/>
+      <c r="H92" s="94"/>
+      <c r="I92" s="98">
+        <v>45763</v>
+      </c>
+      <c r="J92" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" s="96"/>
+    </row>
+    <row r="93" spans="1:11" ht="129" customHeight="1">
+      <c r="A93" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="D93" s="110" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="111"/>
+      <c r="F93" s="111"/>
+      <c r="G93" s="95"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="98">
+        <v>45763</v>
+      </c>
+      <c r="J93" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="96"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75">
+      <c r="A97" s="145" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="145"/>
+      <c r="C97" s="145"/>
+      <c r="D97" s="145"/>
+      <c r="E97" s="145"/>
+      <c r="F97" s="145"/>
+      <c r="G97" s="145"/>
+      <c r="H97" s="145"/>
+      <c r="I97" s="145"/>
+      <c r="J97" s="145"/>
+      <c r="K97" s="146"/>
+    </row>
+    <row r="98" spans="1:11" ht="13.5">
+      <c r="A98" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" s="113"/>
+      <c r="C98" s="113"/>
+      <c r="D98" s="113"/>
+      <c r="E98" s="113"/>
+      <c r="F98" s="113"/>
+      <c r="G98" s="113"/>
+      <c r="H98" s="113"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="113"/>
+      <c r="K98" s="114"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
+  <mergeCells count="96">
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A97:K97"/>
+    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A12:K12"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -12033,55 +13731,25 @@
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D56:F56"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12195,7 +13863,7 @@
       </c>
       <c r="D8" s="72">
         <f>Samples!B6</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E8" s="71">
         <f>Samples!B7</f>
@@ -12207,7 +13875,7 @@
       </c>
       <c r="G8" s="72">
         <f>Samples!D7</f>
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -12227,7 +13895,7 @@
       </c>
       <c r="D10" s="59">
         <f>SUM(D6:D9)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" s="59">
         <f>SUM(E6:E9)</f>
@@ -12239,7 +13907,7 @@
       </c>
       <c r="G10" s="60">
         <f>SUM(G6:G9)</f>
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -12276,7 +13944,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="23">
         <f>D10*100/G10</f>
-        <v>79.166666666666671</v>
+        <v>81.818181818181813</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>23</v>
